--- a/train-data/cm/metadata_training_cm_with_hash_value_1.2.0.xlsx
+++ b/train-data/cm/metadata_training_cm_with_hash_value_1.2.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S_MOHA~1\AppData\Local\Temp\scp17164\media\static\Smruti\AI-Tasks\data-version-control-experiments\training-data-versioning\train-data\cm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76423E5E-0B45-4FDB-824E-55F0D6EE20D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A33662-E117-4381-BEDC-809B53C8E82E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="905">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2824" uniqueCount="2114">
   <si>
     <t>file</t>
   </si>
@@ -2736,6 +2736,3633 @@
   </si>
   <si>
     <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/clinical/d69b3091-dc0f-8f9f-7a6c-d4ec1b7e139b.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-03.04.2018-Kreusch-heavy dysplastic nevus-nevus_heavy_dysplastic (4).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>micro</t>
+  </si>
+  <si>
+    <t>775ddf8a-4f4b-471d-6982-f450f2147301.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/775ddf8a-4f4b-471d-6982-f450f2147301.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-03.04.2018-Kreusch-melanoma-melanoma (10).jpgqszpmqdktq.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>57ff723f-ad09-0c83-1949-df649040a1a3.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/57ff723f-ad09-0c83-1949-df649040a1a3.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-07.2020_c_m-micro-1191_micro_dsc07226.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>859e5a06-5a33-8ea6-2f98-570f0f179638.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/859e5a06-5a33-8ea6-2f98-570f0f179638.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-07.2020_c_m-micro-1456_micro_dsc07194.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>e5f6abc7-86bf-a151-7145-6173537b9a64.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/e5f6abc7-86bf-a151-7145-6173537b9a64.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-07.2020_c_m-micro-1549_micro_dsc01145.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>7baafd92-5fc2-36ab-8876-71ca325bf726.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/7baafd92-5fc2-36ab-8876-71ca325bf726.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-07.2020_c_m-micro-1676_micro_dsc01201.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>af47ad9d-ab09-4e28-7098-a9677fe6985f.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/af47ad9d-ab09-4e28-7098-a9677fe6985f.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-07.2020_c_m-micro-191_micro_dsc00267.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>beff22ed-c6cf-3196-48ae-2bd5bf9ff1c9.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/beff22ed-c6cf-3196-48ae-2bd5bf9ff1c9.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-07.2020_c_m-micro-2445_micro_case 13 (5).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>ccb397df-6b5e-9cf8-b61e-d473feb249dc.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/ccb397df-6b5e-9cf8-b61e-d473feb249dc.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-07.2020_c_m-micro-248_micro_dsc04905.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>336b08d0-b9c2-b6b4-7525-c444a1879541.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/336b08d0-b9c2-b6b4-7525-c444a1879541.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-07.2020_c_m-micro-2628_micro_dsc07405.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>d1c8c23f-f5ee-cbd4-7873-c8a989d0e9b9.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/d1c8c23f-f5ee-cbd4-7873-c8a989d0e9b9.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-07.2020_c_m-micro-2731_micro_case 9 (4).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>11040d3d-157f-cafe-e934-522596710823.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/11040d3d-157f-cafe-e934-522596710823.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-07.2020_c_m-micro-3156_micro_case 8 (5).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>562b2511-3f4a-75ae-fab9-841231e1cdf3.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/562b2511-3f4a-75ae-fab9-841231e1cdf3.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-07.2020_c_m-micro-3363_micro_dsc00563.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>bdd97525-87b9-665d-d44b-662e4023766c.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/bdd97525-87b9-665d-d44b-662e4023766c.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-07.2020_c_m-micro-3427_micro_dsc00993.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>a121a297-907c-5969-948b-ac8e78303f86.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/a121a297-907c-5969-948b-ac8e78303f86.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-07.2020_c_m-micro-3458_micro_dsc00562.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>873b9179-e540-5064-092d-158063822606.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/873b9179-e540-5064-092d-158063822606.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-07.2020_c_m-micro-3488_micro_dsc08876.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>50681889-e3b1-b287-bc29-0f985f2c51e7.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/50681889-e3b1-b287-bc29-0f985f2c51e7.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-07.2020_c_m-micro-364_micro_dsc00204.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>354d9064-11d1-24d5-6483-9d0cac980f4d.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/354d9064-11d1-24d5-6483-9d0cac980f4d.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-07.2020_c_m-micro-3672_micro_case 11 (2).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>5d16d400-f991-3cfb-4d8b-a302f6125c61.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/5d16d400-f991-3cfb-4d8b-a302f6125c61.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Benign_nevi-SONIC-isic_0006342.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>cbf7643c-4250-e51e-b479-8fd4154c3d5c.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/cbf7643c-4250-e51e-b479-8fd4154c3d5c.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Benign_nevi-SONIC-isic_0006618.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>36b1661b-4a68-dcf0-17c1-2266e5a8cb19.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/36b1661b-4a68-dcf0-17c1-2266e5a8cb19.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Benign_nevi-SONIC-isic_0006633.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>24ca3b8d-bfa7-b9bb-79e3-22b1f62cce9a.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/24ca3b8d-bfa7-b9bb-79e3-22b1f62cce9a.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Benign_nevi-SONIC-isic_0006637.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>781b3825-3944-9585-d02d-a0c4dfcc3d05.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/781b3825-3944-9585-d02d-a0c4dfcc3d05.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Benign_nevi-SONIC-isic_0006663.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>0c31e2c0-b731-29da-967c-1e9abadd739b.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/0c31e2c0-b731-29da-967c-1e9abadd739b.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Benign_nevi-SONIC-isic_0006864.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>d64b8f98-c14b-eed6-4bdc-121da8ca3085.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/d64b8f98-c14b-eed6-4bdc-121da8ca3085.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Benign_nevi-SONIC-isic_0006875.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>040ca997-885a-3f4d-7d94-3862962bc053.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/040ca997-885a-3f4d-7d94-3862962bc053.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Benign_nevi-SONIC-isic_0007094.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>d51d919b-95d5-43ef-7d2d-c75896a8791c.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/d51d919b-95d5-43ef-7d2d-c75896a8791c.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-22.12.2017-Raimonds_complete_set19122017-Basal cell carcinoma-bcc (76).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>1b97f809-5d57-7fca-02fd-2a99e0b32259.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/1b97f809-5d57-7fca-02fd-2a99e0b32259.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-22.12.2017-Raimonds_complete_set19122017-Basal cell carcinoma-bcc (811).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>029c8992-a573-b890-3049-af5fc3ff40b0.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/029c8992-a573-b890-3049-af5fc3ff40b0.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-22.12.2017-Raimonds_complete_set19122017-Basal cell carcinoma-bcc (890).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>04fdb7dc-a5ba-823d-4fcc-c86e6fdca0f7.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/04fdb7dc-a5ba-823d-4fcc-c86e6fdca0f7.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-22.12.2017-Raimonds_complete_set19122017-carcinoma spinocellulare-carcinoma spinocellulare (59).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>9f9f1abc-4e13-b30d-c12d-d6ddd6a35eb3.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/9f9f1abc-4e13-b30d-c12d-d6ddd6a35eb3.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-22.12.2017-Raimonds_complete_set19122017-Cysta-cysta (23).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>be5cc4e3-6d44-6e88-4017-e669bb7749db.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/be5cc4e3-6d44-6e88-4017-e669bb7749db.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-22.12.2017-Raimonds_complete_set19122017-Cysta-cysta (34).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>3d3d2e07-5d8a-cdaf-0141-9852eb62fee3.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/3d3d2e07-5d8a-cdaf-0141-9852eb62fee3.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-22.12.2017-Raimonds_complete_set19122017-Cysta-cysta (64).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>b906c857-e349-1ad9-8899-3e34284166ad.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/b906c857-e349-1ad9-8899-3e34284166ad.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-22.12.2017-Raimonds_complete_set19122017-Cysta-cysta (66).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>a0580670-f332-4db6-83c5-5a8495abe1ee.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/a0580670-f332-4db6-83c5-5a8495abe1ee.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-BCC-HAM10000-isic_0028890.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>c5b63286-012b-4533-bbb2-9233b6ef3a4d.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/c5b63286-012b-4533-bbb2-9233b6ef3a4d.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-BCC-HAM10000-isic_0033571.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>fb8e8993-f357-988d-86e4-057b0993be57.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/fb8e8993-f357-988d-86e4-057b0993be57.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-BCC-HAM10000-isic_0034026.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>61b64aa8-28e6-dda2-ba57-ad71364057f9.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/61b64aa8-28e6-dda2-ba57-ad71364057f9.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Benign_nevi-HAM10000-isic_0024347.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>6b144efe-f787-51e5-3977-e57bbb4756a3.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/6b144efe-f787-51e5-3977-e57bbb4756a3.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Benign_nevi-HAM10000-isic_0024365.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>cddf54c9-7fe8-5aab-fc93-c27be95ec6a0.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/cddf54c9-7fe8-5aab-fc93-c27be95ec6a0.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Benign_nevi-HAM10000-isic_0024423.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>d27aeec6-3ebc-24db-46ab-bd6e0abdba5e.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/d27aeec6-3ebc-24db-46ab-bd6e0abdba5e.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Benign_nevi-HAM10000-isic_0024541.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>536aae76-af33-1413-8a86-650dd057724e.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/536aae76-af33-1413-8a86-650dd057724e.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Benign_nevi-HAM10000-isic_0024549.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>849c343a-1490-81ae-f2cc-41ea1459ab4d.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/849c343a-1490-81ae-f2cc-41ea1459ab4d.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Benign_nevi-HAM10000-isic_0024598.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>106884a5-3464-940e-8cb3-6ccd0a429634.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/106884a5-3464-940e-8cb3-6ccd0a429634.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Benign_nevi-HAM10000-isic_0024641.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>d73f1f32-56d3-05db-0f18-3ed6b0e60199.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/d73f1f32-56d3-05db-0f18-3ed6b0e60199.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Benign_nevi-HAM10000-isic_0024896.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>1bcca9ac-ee8a-53e6-2bd5-a05557c8c01d.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/1bcca9ac-ee8a-53e6-2bd5-a05557c8c01d.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Benign_nevi-HAM10000-isic_0025152.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>cd5aa84f-2a3b-6fd2-bd86-27d7c7677f73.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/cd5aa84f-2a3b-6fd2-bd86-27d7c7677f73.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Benign_nevi-HAM10000-isic_0025251.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>e9fe54bf-4bd1-8d7a-cc01-4803c851918d.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/e9fe54bf-4bd1-8d7a-cc01-4803c851918d.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Benign_nevi-HAM10000-isic_0025349.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>165f8857-edce-36bd-9088-46edfdf05a99.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/165f8857-edce-36bd-9088-46edfdf05a99.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Benign_nevi-HAM10000-isic_0025631.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>aab627c5-e246-d92a-27df-c51378d33d05.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/aab627c5-e246-d92a-27df-c51378d33d05.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Benign_nevi-HAM10000-isic_0025692.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>47c0afc7-8511-c8d3-f925-82cb4be5b6c7.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/47c0afc7-8511-c8d3-f925-82cb4be5b6c7.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Benign_nevi-HAM10000-isic_0026134.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>0c7de001-2ff4-6e90-96d0-afbbef5226d6.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/0c7de001-2ff4-6e90-96d0-afbbef5226d6.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-18.10.2019-Ukraine_cases_Sep2019_1_09.09.2019-benign-Melanocytic nevus-nevus03355.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>6a0853b7-d084-62ff-b13f-8a885d5afa19.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/6a0853b7-d084-62ff-b13f-8a885d5afa19.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-18.10.2019-Ukraine_cases_Sep2019_1_09.09.2019-benign-Melanocytic nevus-nevus03443.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>87f7ec46-c6eb-b0d0-c570-56c7cf77caa4.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/87f7ec46-c6eb-b0d0-c570-56c7cf77caa4.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-18.10.2019-Ukraine_cases_Sep2019_1_09.09.2019-benign-Melanocytic nevus-nevus03609.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>432505ce-91da-665a-96db-15e5f07a9e31.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/432505ce-91da-665a-96db-15e5f07a9e31.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-18.10.2019-Ukraine_cases_Sep2019_1_09.09.2019-benign-Melanocytic nevus-nevus03642.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>2e8598ae-075e-4213-baea-1a1babfe6d0a.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/2e8598ae-075e-4213-baea-1a1babfe6d0a.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-18.10.2019-Ukraine_cases_Sep2019_1_09.09.2019-benign-Melanocytic nevus-nevus03649.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>5e7259e7-1a5c-eaf5-60f6-4aca72bf4971.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/5e7259e7-1a5c-eaf5-60f6-4aca72bf4971.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-18.10.2019-Ukraine_cases_Sep2019_1_09.09.2019-benign-Melanocytic nevus-nevus03754.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>e99f292d-f138-0e44-6c27-15de5f915b3f.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/e99f292d-f138-0e44-6c27-15de5f915b3f.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-18.10.2019-Ukraine_cases_Sep2019_1_09.09.2019-benign-Melanocytic nevus-nevus03796.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>f29d34d6-5fd7-8eb9-fe77-4669c6e3cd1e.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/f29d34d6-5fd7-8eb9-fe77-4669c6e3cd1e.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-18.10.2019-Ukraine_cases_Sep2019_1_09.09.2019-benign-Melanocytic nevus-nevus03843.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>43cfe4ae-4974-6378-5fa7-a7e519a72c05.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/43cfe4ae-4974-6378-5fa7-a7e519a72c05.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-18.10.2019-Ukraine_cases_Sep2019_1_09.09.2019-benign-Melanocytic nevus-nevus03863.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>2f29e512-12ab-d26e-8cb1-8ebe8e0adaa1.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/2f29e512-12ab-d26e-8cb1-8ebe8e0adaa1.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-18.10.2019-Ukraine_cases_Sep2019_1_09.09.2019-benign-Melanocytic nevus-nevus03916.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>97dcd4b8-db4e-63da-92ce-9645ef2267e3.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/97dcd4b8-db4e-63da-92ce-9645ef2267e3.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-18.10.2019-Ukraine_cases_Sep2019_1_09.09.2019-benign-Melanocytic nevus-nevus04026.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>4d521b09-8b5d-5019-fd94-3f091a5e0d84.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/4d521b09-8b5d-5019-fd94-3f091a5e0d84.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-18.10.2019-Ukraine_cases_Sep2019_1_09.09.2019-benign-Melanocytic nevus-nevus04144.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>a38ca7d2-5734-84c7-5633-de86bf17494b.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/a38ca7d2-5734-84c7-5633-de86bf17494b.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-07.2020_c_m-micro-3871_micro_case 9 (3).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>6548b7c7-c047-b95e-2448-2c08781330ae.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/6548b7c7-c047-b95e-2448-2c08781330ae.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-07.2020_c_m-micro-6245_micro_dsc04744.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>9b5d5957-d39d-875d-8f88-57bc6e83db3e.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/9b5d5957-d39d-875d-8f88-57bc6e83db3e.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-07.2020_c_m-micro-dsc02619.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>3886dbc2-6870-770c-7104-6a050c311584.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/3886dbc2-6870-770c-7104-6a050c311584.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-07.2020_c_m-micro-dsc08854.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>783edd10-c8c5-6ac8-c8b7-cba913704379.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/783edd10-c8c5-6ac8-c8b7-cba913704379.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-07.2020_c_m-micro-legzdiņa Ārija c1941318.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>e2f98bd7-aa6f-8f97-4529-26747086329e.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/e2f98bd7-aa6f-8f97-4529-26747086329e.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-07.2020_c_m-micro-slokenbergs māris c2019713.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>e46470f1-1258-d74a-14c1-7cb21b20752d.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/e46470f1-1258-d74a-14c1-7cb21b20752d.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-07.2020_c_m-micro-Ģirnis jānis c1789413.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>96e0f1f9-b501-6735-dea4-4ec6ad1a0da9.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/96e0f1f9-b501-6735-dea4-4ec6ad1a0da9.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-08.11.2017-Bengu_Turkey-Dermal nevus-dermal nevus (1).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>7dac33d2-6f9f-9f7b-72c4-4a029bae9a8a.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/7dac33d2-6f9f-9f7b-72c4-4a029bae9a8a.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-BCC-HAM10000-isic_0028583.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>ce403b47-d274-4bf8-ae4c-defa47a4a962.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/ce403b47-d274-4bf8-ae4c-defa47a4a962.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-before_05.10.2017-Benign_nevi_not_secured_diagnosis-non_dynamic-benign_bohne_ID1-182-Accepted-fotofinder2007_2207101511_ffi_130593.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>1bf454e9-7c93-c600-d62d-49e280db4009.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/1bf454e9-7c93-c600-d62d-49e280db4009.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-before_05.10.2017-Benign_nevi_not_secured_diagnosis-non_dynamic-benign_bohne_ID1-182-Accepted-fotofinder2007_2506131517_ffi_247278.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>e132f277-dd92-24ab-ec4c-01c967e98c5a.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/e132f277-dd92-24ab-ec4c-01c967e98c5a.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-before_05.10.2017-Benign_nevi_not_secured_diagnosis-non_dynamic-benign_bohne_ID1-182-Accepted-fotofinder2007_2609120950_ffi_217142.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>cdfb1453-03bb-690d-656a-5d57e4a10dcc.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/cdfb1453-03bb-690d-656a-5d57e4a10dcc.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-before_05.10.2017-Benign_nevi_not_secured_diagnosis-non_dynamic-benign_bohne_ID1-182-Accepted-fotofinder2007_2809091009_ffi_104036.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>7c3015ee-a4d7-64fa-99ef-9f5f19e0ef67.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/7c3015ee-a4d7-64fa-99ef-9f5f19e0ef67.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-before_05.10.2017-Benign_nevi_not_secured_diagnosis-non_dynamic-benign_bohne_ID1-182-Accepted-medic2_0108080911_ffi_49591.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>c6627153-c3dd-1c62-7d73-1db7c98b2ff4.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/c6627153-c3dd-1c62-7d73-1db7c98b2ff4.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-before_05.10.2017-Benign_nevi_not_secured_diagnosis-non_dynamic-benign_bohne_ID1-182-Accepted-medic2_0130080921_ffi_51374.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>9227ca87-73c4-8092-194c-52137c4e99dd.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/9227ca87-73c4-8092-194c-52137c4e99dd.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-before_05.10.2017-Benign_nevi_not_secured_diagnosis-non_dynamic-benign_bohne_ID1-182-Accepted-medic2_0130080930_ffi_51430.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>97331ca8-389f-7a48-dbf9-e14fe54f40c8.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/97331ca8-389f-7a48-dbf9-e14fe54f40c8.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-18.10.2019-Ukraine_cases_Sep2019_1_09.09.2019-benign-Seborrheic keratosis-sebk00044.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>28d4ae9d-b22a-4d31-efbb-eaa8ebe0e67c.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/28d4ae9d-b22a-4d31-efbb-eaa8ebe0e67c.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-18.10.2019-Ukraine_cases_Sep2019_1_09.09.2019-benign-Seborrheic keratosis-sebk00246.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>f2b3b07f-aae5-f886-259a-5d526d1d1b40.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/f2b3b07f-aae5-f886-259a-5d526d1d1b40.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-18.10.2019-Ukraine_cases_Sep2019_1_09.09.2019-benign-Seborrheic keratosis-sebk00275.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>dcd8df0c-1f8f-2f11-fb32-597fb2c43b98.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/dcd8df0c-1f8f-2f11-fb32-597fb2c43b98.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-18.10.2019-Ukraine_cases_Sep2019_1_09.09.2019-benign-Seborrheic keratosis-sebk00377.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>b5067b38-f8ad-b137-d014-75a45a9f8f4e.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/b5067b38-f8ad-b137-d014-75a45a9f8f4e.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-18.10.2019-Ukraine_cases_Sep2019_1_09.09.2019-benign-Seborrheic keratosis-sebk00395.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>bd73c662-3bd5-df47-4efc-f50beb8277ca.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/bd73c662-3bd5-df47-4efc-f50beb8277ca.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-18.10.2019-Ukraine_cases_Sep2019_1_09.09.2019-benign-Seborrheic keratosis-sebk00489.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>1938966e-7021-9fb1-9651-249fc4c16dbd.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/1938966e-7021-9fb1-9651-249fc4c16dbd.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-24.05.2018-Heidelberg_acral-Nevi-552.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>8d07544a-0b08-3912-8a45-a17ffac33bfc.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/8d07544a-0b08-3912-8a45-a17ffac33bfc.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-24.05.2018-Heidelberg_acral-Nevi-597.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>9e9a551b-8630-e5cd-8a56-6b71a833c4fa.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/9e9a551b-8630-e5cd-8a56-6b71a833c4fa.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-24.05.2018-Heidelberg_Nägel-Set_85-lentigo-34.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>4070c9cf-82ee-501c-2e70-170c7878ba3d.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/4070c9cf-82ee-501c-2e70-170c7878ba3d.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-24.05.2018-Heidelberg_Nägel-Set_85-nevi-24.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>d36ea8e3-8edf-2073-5b88-2f7e3ceb18a0.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/d36ea8e3-8edf-2073-5b88-2f7e3ceb18a0.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-24.05.2018-Heidelberg_Nägel-Set_85-nevi-59.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>109c6165-bea4-aa4f-1d96-764be6776938.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/109c6165-bea4-aa4f-1d96-764be6776938.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-29.07.2019-Ukraine_cases-Jul2019_1-FotoFinder Cases_micro-Benign-Acral melanocytic nevus-105049_Юрченко_Марина_04.07.2018 151030_29.06.2019 141306.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>1d6fc1b7-2963-f0d8-5924-7e9a4f4335fe.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/1d6fc1b7-2963-f0d8-5924-7e9a4f4335fe.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-29.07.2019-Ukraine_cases-Jul2019_1-FotoFinder Cases_micro-Benign-Angioma-57107_Усанов_Вадим_17.01.2017 165733_10.07.2019 163818.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>b9907805-f60b-70d5-a33b-48ee080de4cd.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/b9907805-f60b-70d5-a33b-48ee080de4cd.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-29.07.2019-Ukraine_cases-Jul2019_1-FotoFinder Cases_micro-Benign-Atypical nevus-1888_Шиявко_Егор_22.06.2016 115545_29.06.2019 181851.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>e1c6b4c0-bc73-c1cd-5249-946b94b88542.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/e1c6b4c0-bc73-c1cd-5249-946b94b88542.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-07.2020_c_m-micro-dsc09536.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>b114095b-3b89-d8f5-4f9a-66467a3ce2b9.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/b114095b-3b89-d8f5-4f9a-66467a3ce2b9.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-07.2020_c_m-micro-dsc09659.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>8b67a29a-eaac-c413-a159-56a1614df51f.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/8b67a29a-eaac-c413-a159-56a1614df51f.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-07.2020_c_m-micro-eida ilga c1522642.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>75bf7d23-6eeb-75d3-1ae3-8435d8460d68.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/75bf7d23-6eeb-75d3-1ae3-8435d8460d68.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-07.2020_c_m-micro-feldmane māra c1715613.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>fcaf2964-3d5f-a550-c393-d6dbf8bba7e9.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/fcaf2964-3d5f-a550-c393-d6dbf8bba7e9.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-07.2020_c_m-micro-gerhards klāvs s1835111.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>bf8741fe-908c-e04a-84e9-e74ce6b5616b.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/bf8741fe-908c-e04a-84e9-e74ce6b5616b.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-07.2020_c_m-micro-grīnberga laura c1621515.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>38b3d073-15b9-d72c-1077-d0c7fa7ebe24.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/38b3d073-15b9-d72c-1077-d0c7fa7ebe24.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-07.2020_c_m-micro-hansen kent c1781117.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>cce056db-5a4c-8aec-3525-b8f3c1cc829f.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/cce056db-5a4c-8aec-3525-b8f3c1cc829f.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-07.2020_c_m-micro-jakštaite sondra s1778811.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>dc37c459-bd78-238f-62a1-9897e54107e0.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/dc37c459-bd78-238f-62a1-9897e54107e0.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-07.2020_c_m-micro-jarna silvija c1847916.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>5dd79c2f-f658-1dc4-4d0e-b40ae8e54004.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/5dd79c2f-f658-1dc4-4d0e-b40ae8e54004.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-before_05.10.2017-Benign_nevi_not_secured_diagnosis-non_dynamic-benign_bohne_ID1-182-Accepted-fotofinder2007_2710100845_ffi_140660.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>d1738663-fe09-f01b-9bc7-9937c1bd75db.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/d1738663-fe09-f01b-9bc7-9937c1bd75db.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-03.04.2018-Kreusch-blue nevus-nevus_blue(1).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>06eb273f-1178-76f8-dadc-cea24f31d4c7.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/06eb273f-1178-76f8-dadc-cea24f31d4c7.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-03.04.2018-Kreusch-blue nevus-nevus_blue(2).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>78a3f65f-ff9c-7234-183d-bda50d948603.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/78a3f65f-ff9c-7234-183d-bda50d948603.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-03.04.2018-Kreusch-blue nevus-nevus_blue(3).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>c467593e-338f-fff0-4a0a-9a10cd042821.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/c467593e-338f-fff0-4a0a-9a10cd042821.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-03.04.2018-Kreusch-blue nevus-nevus_blue(4).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>ecaa9f8b-376b-b7a4-f057-8bc553645ca8.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/ecaa9f8b-376b-b7a4-f057-8bc553645ca8.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-03.04.2018-Kreusch-blue nevus-nevus_blue(5).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>ff561397-6e5b-f530-0c3f-499fc228d56d.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/ff561397-6e5b-f530-0c3f-499fc228d56d.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-03.04.2018-Kreusch-blue nevus-nevus_blue(6).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>474b9e30-4589-1c11-381b-0beb58bd75b6.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/474b9e30-4589-1c11-381b-0beb58bd75b6.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-03.04.2018-Kreusch-combined nevus-nevus_combined (1).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>5dff3bc8-c21a-4f35-4d72-2d387329ca55.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/5dff3bc8-c21a-4f35-4d72-2d387329ca55.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-03.04.2018-Kreusch-combined nevus-nevus_combined (3).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>af4ded9f-deb2-23e1-d812-be7df3f510b6.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/af4ded9f-deb2-23e1-d812-be7df3f510b6.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-03.04.2018-Kreusch-combined nevus-nevus_combined (4).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>ebd65d03-62dc-94db-8d3e-716304c61df1.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/ebd65d03-62dc-94db-8d3e-716304c61df1.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-03.04.2018-Kreusch-dysplastic nevus-nevus_dysplastic(1).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>72b5e422-22d7-c252-2d08-2e257b75195e.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/72b5e422-22d7-c252-2d08-2e257b75195e.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-03.04.2018-Kreusch-dysplastic nevus-nevus_dysplastic(10).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>3bf7243a-07e6-9869-80d4-23f7bf60c7d4.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/3bf7243a-07e6-9869-80d4-23f7bf60c7d4.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-03.04.2018-Kreusch-dysplastic nevus-nevus_dysplastic(11).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>ddb2a455-21cb-0348-322e-569602cc332d.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/ddb2a455-21cb-0348-322e-569602cc332d.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-03.04.2018-Kreusch-dysplastic nevus-nevus_dysplastic(12).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>bcc75460-2560-bf20-6195-4f9cb9a62d92.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/bcc75460-2560-bf20-6195-4f9cb9a62d92.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-03.04.2018-Kreusch-dysplastic nevus-nevus_dysplastic(13).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>dde74259-e06a-9a00-a238-0e0c990aeeea.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/dde74259-e06a-9a00-a238-0e0c990aeeea.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-03.04.2018-Kreusch-dysplastic nevus-nevus_dysplastic(14).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>d67183dd-43c6-5092-2e5a-85f1c0e4e322.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/d67183dd-43c6-5092-2e5a-85f1c0e4e322.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-03.04.2018-Kreusch-dysplastic nevus-nevus_dysplastic(15).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>9904f4b0-2ba7-f1ec-106e-f3ec318a418c.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/9904f4b0-2ba7-f1ec-106e-f3ec318a418c.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-03.04.2018-Kreusch-dysplastic nevus-nevus_dysplastic(16).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>76f53e74-f8b9-16da-ef36-c4fbd023f2d9.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/76f53e74-f8b9-16da-ef36-c4fbd023f2d9.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-03.04.2018-Kreusch-dysplastic nevus-nevus_dysplastic(17).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>3a1cb3ec-785c-88eb-764d-76204f06b3a9.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/3a1cb3ec-785c-88eb-764d-76204f06b3a9.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-03.04.2018-Kreusch-dysplastic nevus-nevus_dysplastic(18).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>8c680d05-d2c3-264c-c37d-a44b8932b91f.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/8c680d05-d2c3-264c-c37d-a44b8932b91f.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-03.04.2018-Kreusch-dysplastic nevus-nevus_dysplastic(19).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>d587d5aa-17e0-ad53-bfe3-a0f11d676d2a.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/d587d5aa-17e0-ad53-bfe3-a0f11d676d2a.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-03.04.2018-Kreusch-dysplastic nevus-nevus_dysplastic(2).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>a956d625-0310-a2bc-4326-bd1179fc0173.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/a956d625-0310-a2bc-4326-bd1179fc0173.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-03.04.2018-Kreusch-dysplastic nevus-nevus_dysplastic(20).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>c887b50c-030f-5d0e-880a-567ba9b7b619.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/c887b50c-030f-5d0e-880a-567ba9b7b619.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-03.04.2018-Kreusch-dysplastic nevus-nevus_dysplastic(21).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>99f73f99-912f-0cc3-e525-756bb55fde90.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/99f73f99-912f-0cc3-e525-756bb55fde90.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-22.12.2017-Raimonds_complete_set19122017-Nevi-nevus (3202).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>b7ac5490-1b74-6201-317d-662fa91f260c.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/b7ac5490-1b74-6201-317d-662fa91f260c.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-22.12.2017-Raimonds_complete_set19122017-Nevi-nevus (3203).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>74b1acad-c4bd-6cff-8f29-7f39f24a505e.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/74b1acad-c4bd-6cff-8f29-7f39f24a505e.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-22.12.2017-Raimonds_complete_set19122017-Nevi-nevus (3204).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>87062268-79ff-2e71-fcb7-bdf97492f230.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/87062268-79ff-2e71-fcb7-bdf97492f230.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-22.12.2017-Raimonds_complete_set19122017-Nevi-nevus (3205).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>44dc5bdd-c1b0-2653-01e8-3b067a60c7d2.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/44dc5bdd-c1b0-2653-01e8-3b067a60c7d2.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-22.12.2017-Raimonds_complete_set19122017-Nevi-nevus (3206).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>c18a180e-c8cb-eefd-8d66-4384119b939d.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/c18a180e-c8cb-eefd-8d66-4384119b939d.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-22.12.2017-Raimonds_complete_set19122017-Nevi-nevus (3207).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>c604a0e7-31b5-e343-ac9f-dd87ae81e170.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/c604a0e7-31b5-e343-ac9f-dd87ae81e170.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Benign_nevi-SONIC-isic_0003409.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>215a193a-f924-80ce-2e7f-a57965e03870.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/215a193a-f924-80ce-2e7f-a57965e03870.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Benign_nevi-SONIC-isic_0003410.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>dc7aa552-5fdb-07f2-5ba4-bc67bb955628.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/dc7aa552-5fdb-07f2-5ba4-bc67bb955628.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Benign_nevi-SONIC-isic_0003411.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>f352f154-5b38-275e-8939-4ead89e07548.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/f352f154-5b38-275e-8939-4ead89e07548.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Benign_nevi-SONIC-isic_0003412.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>548f23df-ce64-7619-6aee-a96ac4744b68.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/548f23df-ce64-7619-6aee-a96ac4744b68.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Benign_nevi-SONIC-isic_0003413.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>15a49ebf-a5dc-d04f-e413-9545c0591324.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/15a49ebf-a5dc-d04f-e413-9545c0591324.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Benign_nevi-SONIC-isic_0003414.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>7eca2f4a-95a9-715d-a5a1-7862ab0a6190.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/7eca2f4a-95a9-715d-a5a1-7862ab0a6190.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Benign_nevi-SONIC-isic_0003415.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>f9e5ba0b-243d-17c6-3226-f1a86a065529.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/f9e5ba0b-243d-17c6-3226-f1a86a065529.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Benign_nevi-SONIC-isic_0003416.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>41294759-210e-3943-d63d-690e5d6627f6.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/41294759-210e-3943-d63d-690e5d6627f6.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-03.04.2018-Kreusch-normal nevus-nevus_normal(44).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>829d076b-d52d-18a4-43b2-1617902b1c4d.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/829d076b-d52d-18a4-43b2-1617902b1c4d.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-03.04.2018-Kreusch-normal nevus-nevus_normal(45).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>ae280ee1-ab06-3c41-242b-4682b8cb1054.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/ae280ee1-ab06-3c41-242b-4682b8cb1054.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-03.04.2018-Kreusch-normal nevus-nevus_normal(46).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>1de3d3de-c591-05f1-3225-6aad0faa9942.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/1de3d3de-c591-05f1-3225-6aad0faa9942.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-03.04.2018-Kreusch-normal nevus-nevus_normal(47).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>da2db21d-e185-4f0d-036b-e624152565d8.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/da2db21d-e185-4f0d-036b-e624152565d8.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-03.04.2018-Kreusch-normal nevus-nevus_normal(48).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>f6926eee-32e3-81a1-b9bd-3427a31fd46b.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/f6926eee-32e3-81a1-b9bd-3427a31fd46b.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-03.04.2018-Kreusch-normal nevus-nevus_normal(49).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>9a96d032-f5bb-5aad-24ea-65b474e2fd7d.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/9a96d032-f5bb-5aad-24ea-65b474e2fd7d.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-03.04.2018-Kreusch-normal nevus-nevus_normal(5).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>2a45b10d-c47b-d469-5a6f-b9a3ec8e3edf.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/2a45b10d-c47b-d469-5a6f-b9a3ec8e3edf.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-03.04.2018-Kreusch-normal nevus-nevus_normal(50).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>dfd0b9e3-708b-e833-6845-ebd9d8049e49.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/dfd0b9e3-708b-e833-6845-ebd9d8049e49.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-03.04.2018-Kreusch-combined nevus-nevus_combined (2).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>e4fc9cef-5b7d-fdca-f3f2-f9c1030ee074.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/e4fc9cef-5b7d-fdca-f3f2-f9c1030ee074.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-03.04.2018-Kreusch-dysplastic nevus-nevus_dysplastic(22).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>072b2291-f197-8d37-8d5e-51c93ad1beed.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/072b2291-f197-8d37-8d5e-51c93ad1beed.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-03.04.2018-Kreusch-dysplastic nevus-nevus_dysplastic(4).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>84c0ee1b-0b0f-db36-6705-978fd6f26aa9.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/84c0ee1b-0b0f-db36-6705-978fd6f26aa9.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-03.04.2018-Kreusch-melanoma-melanoma (5).jpgqhiwyktuvu.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>9b1451e1-e5ba-e758-14bf-f8eb16e44ca7.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/9b1451e1-e5ba-e758-14bf-f8eb16e44ca7.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-03.04.2018-Kreusch-normal nevus-nevus_normal(12).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>7f680154-b54a-bbb4-37eb-a657d968957a.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/7f680154-b54a-bbb4-37eb-a657d968957a.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-03.04.2018-Kreusch-normal nevus-nevus_normal(24).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>14525c1e-8c36-d4ad-50da-6ccb650995d9.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/14525c1e-8c36-d4ad-50da-6ccb650995d9.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-03.04.2018-Kreusch-normal nevus-nevus_normal(33).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>c62d64f5-75c6-f93e-0bef-a7c611be2fd1.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/c62d64f5-75c6-f93e-0bef-a7c611be2fd1.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-03.04.2018-Kreusch-normal nevus-nevus_normal(43).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>7fa4c1ab-be0b-cf7c-d057-8b65cbd4f762.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/7fa4c1ab-be0b-cf7c-d057-8b65cbd4f762.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-03.04.2018-Kreusch-normal nevus-nevus_normal(51).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>86c964a3-5fb3-59f3-9e8f-05f34c7be0c2.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/86c964a3-5fb3-59f3-9e8f-05f34c7be0c2.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-22.12.2017-Raimonds_complete_set19122017-Nevi-nevus (3209).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>766aa796-27fe-5057-6d75-8377ad4c45d9.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/766aa796-27fe-5057-6d75-8377ad4c45d9.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-22.12.2017-Raimonds_complete_set19122017-Nevi-nevus (321).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>fb1e709a-41a7-7b69-bd62-b62800d3be14.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/fb1e709a-41a7-7b69-bd62-b62800d3be14.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-22.12.2017-Raimonds_complete_set19122017-Nevi-nevus (3210).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>4ec23b44-2083-9451-b4fd-b30b50ceebf0.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/4ec23b44-2083-9451-b4fd-b30b50ceebf0.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-22.12.2017-Raimonds_complete_set19122017-Nevi-nevus (3211).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>03aed963-c4e4-36db-4281-6f83702bc3cf.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/03aed963-c4e4-36db-4281-6f83702bc3cf.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-22.12.2017-Raimonds_complete_set19122017-Nevi-nevus (3212).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>8eb6f6e9-c93b-949f-bd29-464a6ed229a6.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/8eb6f6e9-c93b-949f-bd29-464a6ed229a6.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-22.12.2017-Raimonds_complete_set19122017-Nevi-nevus (3213).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>7d831693-8a85-3dbd-95a3-7bb4ccd3614b.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/7d831693-8a85-3dbd-95a3-7bb4ccd3614b.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-22.12.2017-Raimonds_complete_set19122017-Nevi-nevus (3214).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>22277f57-e57b-fc00-9e33-502aab2f22a2.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/22277f57-e57b-fc00-9e33-502aab2f22a2.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-before_05.10.2017-Benign_nevi_not_secured_diagnosis-non_dynamic-Benign_nevi_not_secured_diagnosis-non_dynamic-2-benign_non_dynamic_dr_rund-fotofinder2007_2403140811_ffi_04145.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>2a622998-3f09-352e-dece-10be2e269f28.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/2a622998-3f09-352e-dece-10be2e269f28.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-before_05.10.2017-Benign_nevi_not_secured_diagnosis-non_dynamic-Benign_nevi_not_secured_diagnosis-non_dynamic-2-benign_non_dynamic_dr_rund-fotofinder2007_2403160810_ffi_08994.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>198c6ebf-1e33-a732-1d0e-c157242bc543.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/198c6ebf-1e33-a732-1d0e-c157242bc543.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-before_05.10.2017-Benign_nevi_not_secured_diagnosis-non_dynamic-Benign_nevi_not_secured_diagnosis-non_dynamic-2-benign_non_dynamic_dr_rund-fotofinder2007_2403161038_ffi_09010.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>441e11ac-a4ab-53df-f0b4-905f882ca205.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/441e11ac-a4ab-53df-f0b4-905f882ca205.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-before_05.10.2017-Benign_nevi_not_secured_diagnosis-non_dynamic-Benign_nevi_not_secured_diagnosis-non_dynamic-2-benign_non_dynamic_dr_rund-fotofinder2007_2403161039_ffi_09011.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>565fce6f-2210-e2aa-fb46-f7c6e509eec6.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/565fce6f-2210-e2aa-fb46-f7c6e509eec6.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Pigmented_benign_keratosis-HAM10000-isic_0031196.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>13d4ea1c-ca56-71d1-8812-a2b0f1091a7e.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/13d4ea1c-ca56-71d1-8812-a2b0f1091a7e.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Pigmented_benign_keratosis-HAM10000-isic_0031200.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>412f9246-c29d-2bb4-28fb-cdec1dd5cbd0.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/412f9246-c29d-2bb4-28fb-cdec1dd5cbd0.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Pigmented_benign_keratosis-HAM10000-isic_0031212.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>ab8a3dad-83e5-15b6-ea81-2fd995a64b36.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/ab8a3dad-83e5-15b6-ea81-2fd995a64b36.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Pigmented_benign_keratosis-HAM10000-isic_0031218.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>15b95d52-746d-68c5-363e-9b191d39007e.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/15b95d52-746d-68c5-363e-9b191d39007e.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Pigmented_benign_keratosis-HAM10000-isic_0031223.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>5a8a666c-d513-a1a6-8ef0-959384625d30.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/5a8a666c-d513-a1a6-8ef0-959384625d30.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Pigmented_benign_keratosis-HAM10000-isic_0031226.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>4195e940-682f-a341-2978-9d1b8380736e.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/4195e940-682f-a341-2978-9d1b8380736e.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Pigmented_benign_keratosis-HAM10000-isic_0031253.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>87938f63-83f1-ba2a-5461-421f8f4a1d44.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/87938f63-83f1-ba2a-5461-421f8f4a1d44.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-18.10.2019-Ukraine_cases_Sep2019_1_09.09.2019-benign-Melanocytic nevus-nevus06342.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>c7b32277-2761-295a-80a4-1f0c6e784a6e.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/c7b32277-2761-295a-80a4-1f0c6e784a6e.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-18.10.2019-Ukraine_cases_Sep2019_1_09.09.2019-benign-Melanocytic nevus-nevus06343.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>ed16149e-8743-3ef5-fa60-7e39663db79f.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/ed16149e-8743-3ef5-fa60-7e39663db79f.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-18.10.2019-Ukraine_cases_Sep2019_1_09.09.2019-benign-Melanocytic nevus-nevus06344.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>2eeb7011-9122-c82c-4d29-95379a131fcf.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/2eeb7011-9122-c82c-4d29-95379a131fcf.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-18.10.2019-Ukraine_cases_Sep2019_1_09.09.2019-benign-Melanocytic nevus-nevus06345.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>a5e2c7cc-6bc8-1725-1bf2-7549835b5770.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/a5e2c7cc-6bc8-1725-1bf2-7549835b5770.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-18.10.2019-Ukraine_cases_Sep2019_1_09.09.2019-benign-Melanocytic nevus-nevus06346.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>658d4594-44ad-925c-ac12-cd6eb1db18b1.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/658d4594-44ad-925c-ac12-cd6eb1db18b1.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-18.10.2019-Ukraine_cases_Sep2019_1_09.09.2019-benign-Melanocytic nevus-nevus06347.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>9670c264-3372-6bcf-f323-09420f2ec086.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/9670c264-3372-6bcf-f323-09420f2ec086.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-08.11.2017-Bengu_Turkey-BCC histologically secured-bcc (122).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>fa95250a-f87a-84b8-0cb1-c6969c15c8b9.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/fa95250a-f87a-84b8-0cb1-c6969c15c8b9.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-08.11.2017-Bengu_Turkey-BCC histologically secured-bcc (123).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>ffe090c1-c421-14c1-267b-b00ef161c5ef.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/ffe090c1-c421-14c1-267b-b00ef161c5ef.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-08.11.2017-Bengu_Turkey-BCC histologically secured-bcc (124).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>3ed4009d-6337-f0b9-0053-80e9da8efe04.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/3ed4009d-6337-f0b9-0053-80e9da8efe04.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-08.11.2017-Bengu_Turkey-BCC histologically secured-bcc (125).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>0c957953-52ed-5a39-8bd3-423bf3db0e77.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/0c957953-52ed-5a39-8bd3-423bf3db0e77.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-08.11.2017-Bengu_Turkey-BCC histologically secured-bcc (126).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>6d251ae4-6eab-97b7-9735-4a877636dd15.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/6d251ae4-6eab-97b7-9735-4a877636dd15.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-08.11.2017-Bengu_Turkey-BCC histologically secured-bcc (127).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>85359c52-396f-3510-5cd9-4ef2c1bfc504.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/85359c52-396f-3510-5cd9-4ef2c1bfc504.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-08.11.2017-Bengu_Turkey-BCC histologically secured-bcc (128).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>ed262d68-c9c2-7b9d-005c-7a1d0d986c26.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/ed262d68-c9c2-7b9d-005c-7a1d0d986c26.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-29.07.2019-Ukraine_cases-Jul2019_1-FotoFinder Cases_micro-Benign-Melanocytic nevus-127253_Чумак_Андрей_23.05.2019 103854_30.06.2019 171437.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>3cef716a-7270-e24d-8c5b-4d7d0ef33678.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/3cef716a-7270-e24d-8c5b-4d7d0ef33678.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-29.07.2019-Ukraine_cases-Jul2019_1-FotoFinder Cases_micro-Benign-Melanocytic nevus-127253_Чумак_Андрей_23.05.2019 103902_30.06.2019 171437.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>1b5bd439-e6e3-ef03-9e42-e588bd5d6a6b.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/1b5bd439-e6e3-ef03-9e42-e588bd5d6a6b.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-29.07.2019-Ukraine_cases-Jul2019_1-FotoFinder Cases_micro-Benign-Melanocytic nevus-127253_Чумак_Андрей_23.05.2019 103912_30.06.2019 171439.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>321d8801-5170-d2db-f569-e9e48c1321b6.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/321d8801-5170-d2db-f569-e9e48c1321b6.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-29.07.2019-Ukraine_cases-Jul2019_1-FotoFinder Cases_micro-Benign-Melanocytic nevus-127253_Чумак_Андрей_23.05.2019 104005_30.06.2019 171438.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>962e4d76-aa7b-2057-2b39-cffe9f439c35.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/962e4d76-aa7b-2057-2b39-cffe9f439c35.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-29.07.2019-Ukraine_cases-Jul2019_1-FotoFinder Cases_micro-Benign-Melanocytic nevus-127253_Чумак_Андрей_23.05.2019 104012_30.06.2019 171438.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>f0385060-be60-9580-5a2c-0f1e77d0e11b.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/f0385060-be60-9580-5a2c-0f1e77d0e11b.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-29.07.2019-Ukraine_cases-Jul2019_1-FotoFinder Cases_micro-Benign-Melanocytic nevus-127258_Фесенко_Катерина_23.05.2019 152943_10.07.2019 160822.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>a3eec936-1ea4-5e4f-7c66-6258284a8d0f.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/a3eec936-1ea4-5e4f-7c66-6258284a8d0f.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-29.07.2019-Ukraine_cases-Jul2019_1-FotoFinder Cases_micro-Benign-Melanocytic nevus-127258_Фесенко_Катерина_23.05.2019 153024_10.07.2019 160823.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>35c5339e-7a7c-8539-11cf-0a388186ca41.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/35c5339e-7a7c-8539-11cf-0a388186ca41.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-29.07.2019-Ukraine_cases-Jul2019_1-FotoFinder Cases_micro-Benign-Melanocytic nevus-127258_Фесенко_Катерина_23.05.2019 153035_10.07.2019 160824.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>54b3d306-7607-c3b4-dcc4-b2a58f63e4d6.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/54b3d306-7607-c3b4-dcc4-b2a58f63e4d6.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-29.07.2019-Ukraine_cases-Jul2019_1-FotoFinder Cases_micro-Benign-Melanocytic nevus-127258_Фесенко_Катерина_23.05.2019 153051_10.07.2019 160824.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>aa117f92-b82a-2b04-79f2-2f2e410998d8.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/aa117f92-b82a-2b04-79f2-2f2e410998d8.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-before_05.10.2017-Benign_nevi_not_secured_diagnosis-non_dynamic-Benign_nevi_not_secured_diagnosis-non_dynamic-2-benign_non_dynamic_dr_rund-fotofinder2007_2403161039_ffi_09013.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>8656911d-b504-9bc0-df1b-938886a8f156.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/8656911d-b504-9bc0-df1b-938886a8f156.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-before_05.10.2017-Benign_nevi_not_secured_diagnosis-non_dynamic-Benign_nevi_not_secured_diagnosis-non_dynamic-2-benign_non_dynamic_dr_rund-fotofinder2007_2404140855_ffi_04412.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>fd243ed2-4fd2-a35d-0c62-136312f66936.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/fd243ed2-4fd2-a35d-0c62-136312f66936.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-before_05.10.2017-Benign_nevi_not_secured_diagnosis-non_dynamic-Benign_nevi_not_secured_diagnosis-non_dynamic-2-benign_non_dynamic_dr_rund-fotofinder2007_2404140855_ffi_04413.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>237f9887-2824-1b76-1734-f4a006ad88c0.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/237f9887-2824-1b76-1734-f4a006ad88c0.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-before_05.10.2017-Benign_nevi_not_secured_diagnosis-non_dynamic-Benign_nevi_not_secured_diagnosis-non_dynamic-2-benign_non_dynamic_dr_rund-fotofinder2007_2404140855_ffi_04414.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>81e88c08-fa8f-604a-46c4-be2fad20cec2.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/81e88c08-fa8f-604a-46c4-be2fad20cec2.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-before_05.10.2017-Benign_nevi_not_secured_diagnosis-non_dynamic-Benign_nevi_not_secured_diagnosis-non_dynamic-2-benign_non_dynamic_dr_rund-fotofinder2007_2404140855_ffi_04415.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>c9106b5e-aadc-bc4a-42d2-7b1e6e70b720.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/c9106b5e-aadc-bc4a-42d2-7b1e6e70b720.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-before_05.10.2017-Benign_nevi_not_secured_diagnosis-non_dynamic-benign_schirren_532-1321-Accepted-fotofinderuniverse_2010150000_ffi_027752_converted.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>0b6c9b8d-b7ba-3d95-d705-5135056386a1.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/0b6c9b8d-b7ba-3d95-d705-5135056386a1.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-before_05.10.2017-Benign_nevi_not_secured_diagnosis-non_dynamic-benign_schirren_532-1321-Accepted-fotofinderuniverse_2010150000_ffi_027755_converted.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>e6134f3c-00fd-1bd3-230f-d28a95d8d7d2.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/e6134f3c-00fd-1bd3-230f-d28a95d8d7d2.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-before_05.10.2017-Benign_nevi_not_secured_diagnosis-non_dynamic-benign_schirren_532-1321-Accepted-fotofinderuniverse_2011020000_ffi_012163_converted.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>53c5b871-3e72-a6f0-8e5b-41774a3e5f51.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/53c5b871-3e72-a6f0-8e5b-41774a3e5f51.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-before_05.10.2017-Benign_nevi_not_secured_diagnosis-non_dynamic-benign_schirren_532-1321-Accepted-fotofinderuniverse_2011020000_ffi_012164_converted.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>a123287c-4e77-cbec-cff8-a10b83a8c2d1.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/a123287c-4e77-cbec-cff8-a10b83a8c2d1.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-22.12.2017-Raimonds_complete_set19122017-Nevi-nevus (3208).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>dc48b39a-14d5-f502-e36d-de478c32e7b7.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/dc48b39a-14d5-f502-e36d-de478c32e7b7.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-22.12.2017-Raimonds_complete_set19122017-Nevi-nevus (3215).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>0e062634-6e32-2b1f-0ed3-444172e0e51b.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/0e062634-6e32-2b1f-0ed3-444172e0e51b.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-22.12.2017-Raimonds_complete_set19122017-Nevi-nevus (3229).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>831ad363-b91a-c287-f0b3-9c8a831c25bb.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/831ad363-b91a-c287-f0b3-9c8a831c25bb.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-22.12.2017-Raimonds_complete_set19122017-Nevi-nevus (3236).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>ebc6517e-005e-2cf2-a538-fc568aa185bd.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/ebc6517e-005e-2cf2-a538-fc568aa185bd.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-22.12.2017-Raimonds_complete_set19122017-Nevi-nevus (3249).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>f5553fb9-ae30-4935-1aa6-3e16d6635b9d.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/f5553fb9-ae30-4935-1aa6-3e16d6635b9d.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-22.12.2017-Raimonds_complete_set19122017-Nevi-nevus (3256).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>3dd35056-f73b-c782-b1fe-96efe3f0e6b4.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/3dd35056-f73b-c782-b1fe-96efe3f0e6b4.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-22.12.2017-Raimonds_complete_set19122017-Nevi-nevus (3263).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>eb9f043f-8fbb-0545-8423-753ba87c2e7c.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/eb9f043f-8fbb-0545-8423-753ba87c2e7c.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-22.12.2017-Raimonds_complete_set19122017-Nevi-nevus (3274).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>a367b492-16d2-4bf3-6845-249c444d3a5e.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/a367b492-16d2-4bf3-6845-249c444d3a5e.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-22.12.2017-Raimonds_complete_set19122017-Nevi-nevus (3281).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>1dfec54f-1078-f34b-148b-2465653f07a3.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/1dfec54f-1078-f34b-148b-2465653f07a3.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-22.12.2017-Raimonds_complete_set19122017-Nevi-nevus (3289).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>3629bfd6-610a-7ef4-223f-c97fa1ccec00.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/3629bfd6-610a-7ef4-223f-c97fa1ccec00.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-22.12.2017-Raimonds_complete_set19122017-Basal cell carcinoma-bcc (6).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>8fd31f1f-da8c-f044-0f79-266c89789e9c.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/8fd31f1f-da8c-f044-0f79-266c89789e9c.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-22.12.2017-Raimonds_complete_set19122017-Basal cell carcinoma-bcc (60).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>66c7b61a-7fc1-f9bc-b928-9a2772b49bd9.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/66c7b61a-7fc1-f9bc-b928-9a2772b49bd9.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-22.12.2017-Raimonds_complete_set19122017-Basal cell carcinoma-bcc (600).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>1fdfdab0-b52e-13c8-a70e-3fbf792f7d31.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/1fdfdab0-b52e-13c8-a70e-3fbf792f7d31.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-22.12.2017-Raimonds_complete_set19122017-Basal cell carcinoma-bcc (601).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>a0795a67-5ea3-b7eb-abdf-754dd8282ff4.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/a0795a67-5ea3-b7eb-abdf-754dd8282ff4.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-22.12.2017-Raimonds_complete_set19122017-Basal cell carcinoma-bcc (602).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-22.12.2017-Raimonds_complete_set19122017-Basal cell carcinoma-bcc (603).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>6ac03b37-f568-e9ca-eb6e-8c025e3b1bdb.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/6ac03b37-f568-e9ca-eb6e-8c025e3b1bdb.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-22.12.2017-Raimonds_complete_set19122017-Basal cell carcinoma-bcc (604).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Pigmented_benign_keratosis-HAM10000-isic_0031277.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>63f5d0c7-648b-59ff-85c3-7d5df10114c3.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/63f5d0c7-648b-59ff-85c3-7d5df10114c3.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Pigmented_benign_keratosis-HAM10000-isic_0031287.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>6b9df7cb-ef60-ce69-7481-cc2c1bd28b5a.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/6b9df7cb-ef60-ce69-7481-cc2c1bd28b5a.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Pigmented_benign_keratosis-HAM10000-isic_0031289.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>e6abfbba-34ef-953c-1971-3ec94a4acac4.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/e6abfbba-34ef-953c-1971-3ec94a4acac4.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Pigmented_benign_keratosis-HAM10000-isic_0031321.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>c398035d-5e0a-138a-3775-8d80a1a2ebbc.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/c398035d-5e0a-138a-3775-8d80a1a2ebbc.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Pigmented_benign_keratosis-HAM10000-isic_0031326.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>dbb72a53-7d86-b4d0-d59e-9800b16911f7.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/dbb72a53-7d86-b4d0-d59e-9800b16911f7.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Pigmented_benign_keratosis-HAM10000-isic_0031329.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>b92e23a8-e703-ba57-7fc5-ce8cbcc20604.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/b92e23a8-e703-ba57-7fc5-ce8cbcc20604.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Pigmented_benign_keratosis-HAM10000-isic_0031334.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>6fbf3f93-2393-9ce8-52fb-4cac896f2d04.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/6fbf3f93-2393-9ce8-52fb-4cac896f2d04.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-30.01.2019-Ukraine_cases_Sep2018_2_30.01.2019-SebK-sebk(118).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>f826ec1f-99d0-c600-3fd1-94bd7ed27120.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/f826ec1f-99d0-c600-3fd1-94bd7ed27120.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-30.01.2019-Ukraine_cases_Sep2018_2_30.01.2019-SebK-sebk(119).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>090ca89f-37c2-98fa-f44b-d75d5790875d.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/090ca89f-37c2-98fa-f44b-d75d5790875d.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-30.01.2019-Ukraine_cases_Sep2018_2_30.01.2019-SebK-sebk(12).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>17b37205-127b-d1c7-2967-6f5ddf65863a.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/17b37205-127b-d1c7-2967-6f5ddf65863a.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-30.01.2019-Ukraine_cases_Sep2018_2_30.01.2019-SebK-sebk(120).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>c5eaa9d0-ca13-ef65-a1fb-3698d323beb4.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/c5eaa9d0-ca13-ef65-a1fb-3698d323beb4.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-30.01.2019-Ukraine_cases_Sep2018_2_30.01.2019-SebK-sebk(121).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>489dd668-2cee-f56d-1be8-64859dd09488.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/489dd668-2cee-f56d-1be8-64859dd09488.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-30.01.2019-Ukraine_cases_Sep2018_2_30.01.2019-SebK-sebk(13).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>c01a603a-cd86-543e-fe22-05b48d8a4571.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/c01a603a-cd86-543e-fe22-05b48d8a4571.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-30.01.2019-Ukraine_cases_Sep2018_2_30.01.2019-SebK-sebk(14).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>7bbb1312-fb88-3125-3a79-e2f04b002cb7.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/7bbb1312-fb88-3125-3a79-e2f04b002cb7.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Benign_nevi-HAM10000-isic_0030480.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>50559a22-3ed4-5c99-60fa-ecc97ea7673a.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/50559a22-3ed4-5c99-60fa-ecc97ea7673a.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Benign_nevi-HAM10000-isic_0030481.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>cefa7bb9-4661-352e-1d5d-62ce79033270.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/cefa7bb9-4661-352e-1d5d-62ce79033270.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Benign_nevi-HAM10000-isic_0030482.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>1f71b094-b5e2-2886-8649-9f07513ce173.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/1f71b094-b5e2-2886-8649-9f07513ce173.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Benign_nevi-HAM10000-isic_0030483.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>e9ad95d5-ff92-a92d-92ec-f85f8969273a.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/e9ad95d5-ff92-a92d-92ec-f85f8969273a.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Benign_nevi-HAM10000-isic_0030484.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>fca809c7-af84-044f-d952-9658abf6b92a.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/fca809c7-af84-044f-d952-9658abf6b92a.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Benign_nevi-HAM10000-isic_0030485.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>a769e338-48c7-04db-580e-93412076d455.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/a769e338-48c7-04db-580e-93412076d455.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Benign_nevi-HAM10000-isic_0030489.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>43c52e20-8558-43d1-9806-06959ef1f643.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/43c52e20-8558-43d1-9806-06959ef1f643.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Benign_nevi-HAM10000-isic_0030490.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>90258620-1eea-e510-0de6-f6bd05c38cda.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/90258620-1eea-e510-0de6-f6bd05c38cda.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-22.12.2017-Raimonds_complete_set19122017-Nevi-nevus (325).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>c48e7f13-261b-fc4c-35b6-b4e2d7779996.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/c48e7f13-261b-fc4c-35b6-b4e2d7779996.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-22.12.2017-Raimonds_complete_set19122017-Nevi-nevus (3250).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>e47b461f-8d3a-21b8-d47f-1bd99e459d58.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/e47b461f-8d3a-21b8-d47f-1bd99e459d58.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-22.12.2017-Raimonds_complete_set19122017-Nevi-nevus (3251).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>5ad06112-673a-2265-3c3a-df4f758d53e6.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/5ad06112-673a-2265-3c3a-df4f758d53e6.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-22.12.2017-Raimonds_complete_set19122017-Nevi-nevus (3252).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>30486e91-b2ee-b18a-534a-67c5f820b9db.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/30486e91-b2ee-b18a-534a-67c5f820b9db.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-22.12.2017-Raimonds_complete_set19122017-Nevi-nevus (3253).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>6fee1b50-628f-dd7a-f914-1ea6df5e3a7d.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/6fee1b50-628f-dd7a-f914-1ea6df5e3a7d.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-22.12.2017-Raimonds_complete_set19122017-Nevi-nevus (3254).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>3ee50594-67d3-c1dd-6f7b-7fb81d4813dc.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/3ee50594-67d3-c1dd-6f7b-7fb81d4813dc.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-22.12.2017-Raimonds_complete_set19122017-Nevi-nevus (3255).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>a4c3f924-8578-0b0e-86c8-a40b05b46a14.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/a4c3f924-8578-0b0e-86c8-a40b05b46a14.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-07.2020_c_m-micro-dsc00906.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>9930f4f9-5bcb-1b9d-2983-260a189049a3.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/9930f4f9-5bcb-1b9d-2983-260a189049a3.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-07.2020_c_m-micro-dsc00907.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>76ed62de-b19d-320a-a6db-46875bf3d011.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/76ed62de-b19d-320a-a6db-46875bf3d011.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-07.2020_c_m-micro-dsc00908.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>b56a5b59-9172-7285-36c9-b5e7ec81335c.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/b56a5b59-9172-7285-36c9-b5e7ec81335c.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-07.2020_c_m-micro-dsc00915.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>8328387a-1ad6-c6ff-d207-3b0907a0bae0.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/8328387a-1ad6-c6ff-d207-3b0907a0bae0.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-07.2020_c_m-micro-dsc00916.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>d683ea45-858f-fdc5-1e79-66b2039ea4e7.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/d683ea45-858f-fdc5-1e79-66b2039ea4e7.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-07.2020_c_m-micro-dsc00917.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>804f1f2d-2cec-e227-cfcf-84b2a9db206b.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/804f1f2d-2cec-e227-cfcf-84b2a9db206b.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-07.2020_c_m-micro-dsc00926.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>9987e8d9-288e-3a8e-f4fd-8eaeee6f3572.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/9987e8d9-288e-3a8e-f4fd-8eaeee6f3572.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-07.2020_c_m-micro-dsc00927.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>5fe6c166-4ce9-1e6e-5659-babb3b955e72.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/5fe6c166-4ce9-1e6e-5659-babb3b955e72.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-07.2020_c_m-micro-dsc00939.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>adfaf324-6493-b5e2-34f9-d861430943cf.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/adfaf324-6493-b5e2-34f9-d861430943cf.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-07.2020_c_m-micro-dsc00942.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>f01690a7-9448-e8e4-6543-e44cc9a235e1.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/f01690a7-9448-e8e4-6543-e44cc9a235e1.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-07.2020_c_m-micro-dsc00943.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>22aeaa30-762b-0d7b-ab12-a69caf99c41c.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/22aeaa30-762b-0d7b-ab12-a69caf99c41c.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-07.2020_c_m-micro-dsc00946.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>efaaf2e3-2bb7-e9eb-3ef5-c2f7a2c8b3ee.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/efaaf2e3-2bb7-e9eb-3ef5-c2f7a2c8b3ee.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-07.2020_c_m-micro-dsc00947.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>e513bdda-d7b1-0544-5d1a-a99546aba867.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/e513bdda-d7b1-0544-5d1a-a99546aba867.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-07.2020_c_m-micro-dsc00954.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>c155a03e-1a4a-e335-4a89-bcf4cbe3d686.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/c155a03e-1a4a-e335-4a89-bcf4cbe3d686.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-07.2020_c_m-micro-dsc00955.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>abc44ea2-1e04-fd5c-3f71-866bb27a2782.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/abc44ea2-1e04-fd5c-3f71-866bb27a2782.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-07.2020_c_m-micro-dsc00956.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>ce860311-7fe6-2b72-5f69-2e3548578cdb.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/ce860311-7fe6-2b72-5f69-2e3548578cdb.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-07.2020_c_m-micro-dsc00957.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>f83e51e5-6113-5cd4-81a6-2fdf81c92fd4.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/f83e51e5-6113-5cd4-81a6-2fdf81c92fd4.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-07.2020_c_m-micro-dsc00958.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>85588c71-c5cd-84b4-4a34-842f55678a01.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/85588c71-c5cd-84b4-4a34-842f55678a01.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-07.2020_c_m-micro-dsc00961.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>7896a54a-71e3-46ef-900e-fccdcfb5d9fa.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/7896a54a-71e3-46ef-900e-fccdcfb5d9fa.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Benign_nevi-SONIC-isic_0007940.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>2b88251b-2758-41f2-d015-382d62b3ef4c.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/2b88251b-2758-41f2-d015-382d62b3ef4c.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Benign_nevi-SONIC-isic_0007941.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>00f6a9a4-d0ab-7a5a-6bdc-492f5421d551.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/00f6a9a4-d0ab-7a5a-6bdc-492f5421d551.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Benign_nevi-SONIC-isic_0007942.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>1e667472-a0ca-5ac8-0ec6-6ce013c753ab.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/1e667472-a0ca-5ac8-0ec6-6ce013c753ab.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Benign_nevi-SONIC-isic_0007943.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>2f6832d8-1827-1a08-ee32-f86a9f803576.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/2f6832d8-1827-1a08-ee32-f86a9f803576.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Benign_nevi-SONIC-isic_0007944.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>09c09ac8-efad-91ea-a7da-54383f7fd693.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/09c09ac8-efad-91ea-a7da-54383f7fd693.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Benign_nevi-SONIC-isic_0007945.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>6f478ea4-b2d6-8c14-f01b-3f8b75d5604b.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/6f478ea4-b2d6-8c14-f01b-3f8b75d5604b.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Benign_nevi-SONIC-isic_0007946.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>8d029816-7cb8-c725-badb-225daa6b7ad1.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/8d029816-7cb8-c725-badb-225daa6b7ad1.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Benign_nevi-SONIC-isic_0007947.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>6b24b9d3-073b-9fce-2d2e-5fac8f37872e.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/6b24b9d3-073b-9fce-2d2e-5fac8f37872e.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-22.12.2017-Salerni_week5-COMMON NEVI-common_nevus (361).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>5a625867-3f66-dc99-1c83-1f872282d5ad.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/5a625867-3f66-dc99-1c83-1f872282d5ad.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-22.12.2017-Salerni_week5-COMMON NEVI-common_nevus (362).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>3ec954c1-1ae4-9fe0-cdea-6c025c306e72.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/3ec954c1-1ae4-9fe0-cdea-6c025c306e72.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-22.12.2017-Salerni_week5-COMMON NEVI-common_nevus (363).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>e835607a-c704-a530-c432-18daa7af5707.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/e835607a-c704-a530-c432-18daa7af5707.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-22.12.2017-Salerni_week5-COMMON NEVI-common_nevus (364).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>010bd5e4-8237-194c-bfd6-896d55ad9d82.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/010bd5e4-8237-194c-bfd6-896d55ad9d82.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-22.12.2017-Salerni_week5-COMMON NEVI-common_nevus (365).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>c71078a4-3201-ea3e-e69a-84abc0c140b8.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/c71078a4-3201-ea3e-e69a-84abc0c140b8.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-22.12.2017-Salerni_week5-COMMON NEVI-common_nevus (366).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>aa5b3044-2be9-92d0-b0ac-1cc8997fbc6c.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/aa5b3044-2be9-92d0-b0ac-1cc8997fbc6c.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-18.10.2019-Ukraine_cases_Sep2019_1_09.09.2019-benign-Atypical nevus-atypical00210.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>76077e43-c628-789b-403d-665311557a02.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/76077e43-c628-789b-403d-665311557a02.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-18.10.2019-Ukraine_cases_Sep2019_1_09.09.2019-benign-Atypical nevus-atypical00211.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>dd7fb541-7b53-fa5e-3ef5-3c1d18877a6a.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/dd7fb541-7b53-fa5e-3ef5-3c1d18877a6a.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-18.10.2019-Ukraine_cases_Sep2019_1_09.09.2019-benign-Atypical nevus-atypical00212.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>34f0b223-b11f-8473-f385-3ee9d5c7a794.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/34f0b223-b11f-8473-f385-3ee9d5c7a794.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-18.10.2019-Ukraine_cases_Sep2019_1_09.09.2019-benign-Atypical nevus-atypical00213.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>25c3a905-35c0-3042-1eb0-a1d40990e2be.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/25c3a905-35c0-3042-1eb0-a1d40990e2be.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-18.10.2019-Ukraine_cases_Sep2019_1_09.09.2019-benign-Atypical nevus-atypical00214.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>4eb1439e-3a78-3833-81a1-b85bf383765c.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/4eb1439e-3a78-3833-81a1-b85bf383765c.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-18.10.2019-Ukraine_cases_Sep2019_1_09.09.2019-benign-Atypical nevus-atypical00215.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>5e9bd3c9-cf24-fc63-b65d-c6354d985bf4.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/5e9bd3c9-cf24-fc63-b65d-c6354d985bf4.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-18.10.2019-Ukraine_cases_Sep2019_1_09.09.2019-benign-Atypical nevus-atypical00216.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>a99423fd-4dbf-3f43-ac41-b6d962dc0255.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/a99423fd-4dbf-3f43-ac41-b6d962dc0255.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-18.10.2019-Ukraine_cases_Sep2019_1_09.09.2019-benign-Atypical nevus-atypical00217.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>7fdd3490-f1d9-79ac-60a7-d794a74e2e03.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/7fdd3490-f1d9-79ac-60a7-d794a74e2e03.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-18.10.2019-Ukraine_cases_Sep2019_1_09.09.2019-benign-Atypical nevus-atypical00218.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>199cdb6e-cd5a-0b0d-272f-dc7027490de0.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/199cdb6e-cd5a-0b0d-272f-dc7027490de0.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-18.10.2019-Ukraine_cases_Sep2019_1_09.09.2019-benign-Atypical nevus-atypical00220.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>df4703a7-dc89-ffe5-5b14-2c032a6fb50a.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/df4703a7-dc89-ffe5-5b14-2c032a6fb50a.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-18.10.2019-Ukraine_cases_Sep2019_1_09.09.2019-benign-Atypical nevus-atypical00221.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>d2a0ff75-fef9-3ede-6650-d8113cc18b65.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/d2a0ff75-fef9-3ede-6650-d8113cc18b65.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-18.10.2019-Ukraine_cases_Sep2019_1_09.09.2019-benign-Atypical nevus-atypical00222.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>b632dee7-f313-42c8-c44d-c257d178b517.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/b632dee7-f313-42c8-c44d-c257d178b517.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-before_05.10.2017-Benign_nevi_not_secured_diagnosis-non_dynamic-benign_schirren_532-1321-Accepted-fotofinderuniverse_2011020000_ffi_012166_converted.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>b41674db-b464-b0ab-c38b-cd27b70eff41.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/b41674db-b464-b0ab-c38b-cd27b70eff41.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-before_05.10.2017-Benign_nevi_not_secured_diagnosis-non_dynamic-benign_schirren_532-1321-Accepted-fotofinderuniverse_2011020000_ffi_012167_converted.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>4f0b3453-1890-ce01-dde3-8960ef183fe7.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/4f0b3453-1890-ce01-dde3-8960ef183fe7.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-before_05.10.2017-Benign_nevi_not_secured_diagnosis-non_dynamic-benign_schirren_532-1321-Accepted-fotofinderuniverse_2011020000_ffi_012168_converted.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>648b882b-5d51-e300-1c1b-9e5b9e8bcc0a.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/648b882b-5d51-e300-1c1b-9e5b9e8bcc0a.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-before_05.10.2017-Benign_nevi_not_secured_diagnosis-non_dynamic-benign_schirren_532-1321-Accepted-fotofinderuniverse_2011020000_ffi_012169_converted.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>c11d2eac-e565-3690-a774-4a7ae90d6971.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/c11d2eac-e565-3690-a774-4a7ae90d6971.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Melanoma-MSK-2-isic_0010120.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>a49714a7-b8a6-826d-9561-608fa88baa5d.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/a49714a7-b8a6-826d-9561-608fa88baa5d.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Melanoma-MSK-2-isic_0010122.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>4b767899-e2e2-41b6-56a8-5b66c4f6ebc7.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/4b767899-e2e2-41b6-56a8-5b66c4f6ebc7.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Melanoma-MSK-2-isic_0010131.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>528769a8-5292-dc27-9d2a-5bacf0edd94b.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/528769a8-5292-dc27-9d2a-5bacf0edd94b.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Melanoma-MSK-2-isic_0010137.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>115c42fc-1803-679e-5bad-a5c96924af02.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/115c42fc-1803-679e-5bad-a5c96924af02.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Melanoma-MSK-2-isic_0010140.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>e263cfd4-9dca-7b5c-323f-53403b183353.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/e263cfd4-9dca-7b5c-323f-53403b183353.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Melanoma-MSK-2-isic_0010143.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>b1471693-bda3-a205-190e-78286bc1ecd8.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/b1471693-bda3-a205-190e-78286bc1ecd8.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Melanoma-MSK-2-isic_0010145.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>bef7f783-417d-e232-10d5-e5333df451b0.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/bef7f783-417d-e232-10d5-e5333df451b0.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Melanoma-MSK-2-isic_0010148.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>61bb1eb2-2c31-8eac-371c-fe3cb7054916.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/61bb1eb2-2c31-8eac-371c-fe3cb7054916.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Melanoma-MSK-2-isic_0010156.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>19596510-6572-6d93-9cdc-09ee73a21bcd.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/19596510-6572-6d93-9cdc-09ee73a21bcd.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-30.01.2019-Ukraine_cases_Sep2018_2_30.01.2019-SebK-sebk(112).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>37a27375-4858-b5ba-636a-bc82e16134dc.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/37a27375-4858-b5ba-636a-bc82e16134dc.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-30.01.2019-Ukraine_cases_Sep2018_2_30.01.2019-SebK-sebk(113).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>6119fdc4-9143-fbfa-46eb-868105d40784.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/6119fdc4-9143-fbfa-46eb-868105d40784.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-30.01.2019-Ukraine_cases_Sep2018_2_30.01.2019-SebK-sebk(114).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>e8c09948-dac5-2785-dff8-9b6f5a6b6e3d.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/e8c09948-dac5-2785-dff8-9b6f5a6b6e3d.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-30.01.2019-Ukraine_cases_Sep2018_2_30.01.2019-SebK-sebk(115).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>31ad168b-fbcc-07a9-c91b-3bfe36d68130.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/31ad168b-fbcc-07a9-c91b-3bfe36d68130.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-30.01.2019-Ukraine_cases_Sep2018_2_30.01.2019-SebK-sebk(116).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>b7f70380-6f8a-7cff-e0c9-3202cae544c0.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/b7f70380-6f8a-7cff-e0c9-3202cae544c0.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-30.01.2019-Ukraine_cases_Sep2018_2_30.01.2019-SebK-sebk(15).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>f2314528-8733-c9a8-2b99-910d38b458aa.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/f2314528-8733-c9a8-2b99-910d38b458aa.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-30.01.2019-Ukraine_cases_Sep2018_2_30.01.2019-SebK-sebk(23).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>dbaaff0c-bd5f-cf20-dd64-3f2fd7cb9109.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/dbaaff0c-bd5f-cf20-dd64-3f2fd7cb9109.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-30.01.2019-Ukraine_cases_Sep2018_2_30.01.2019-SebK-sebk(30).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>be2100d8-0f2c-a329-a527-1660ae276417.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/be2100d8-0f2c-a329-a527-1660ae276417.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-30.01.2019-Ukraine_cases_Sep2018_2_30.01.2019-SebK-sebk(4).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>b74d72c4-b427-aa6c-8841-80bb2d07a127.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/b74d72c4-b427-aa6c-8841-80bb2d07a127.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-30.01.2019-Ukraine_cases_Sep2018_2_30.01.2019-SebK-sebk(48).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>7bf675a9-e708-8e61-1aba-9a66779676b9.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/7bf675a9-e708-8e61-1aba-9a66779676b9.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-30.01.2019-Ukraine_cases_Sep2018_2_30.01.2019-SebK-sebk(55).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>642055a6-a294-b439-07ba-206e4b860ad0.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/642055a6-a294-b439-07ba-206e4b860ad0.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-30.01.2019-Ukraine_cases_Sep2018_2_30.01.2019-SebK-sebk(64).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>9e13c5a9-d8a3-2bf8-ff17-1a87841a3319.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/9e13c5a9-d8a3-2bf8-ff17-1a87841a3319.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-30.01.2019-Ukraine_cases_Sep2018_2_30.01.2019-SebK-sebk(70).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>0164f45c-bb7f-ea9b-5548-f1a08d12561e.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/0164f45c-bb7f-ea9b-5548-f1a08d12561e.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-30.01.2019-Ukraine_cases_Sep2018_2_30.01.2019-SebK-sebk(78).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>1b405a5e-4236-04d5-6e5d-57362fd008df.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/1b405a5e-4236-04d5-6e5d-57362fd008df.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-before_05.10.2017-Benign_nevi_not_secured_diagnosis-non_dynamic-Benign_nevi_not_secured_diagnosis-non_dynamic-1-fotofinder2007_0702141232_ffi_280726.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>6c1bc07c-c1a8-9594-3fae-e55ac6fd7ccb.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/6c1bc07c-c1a8-9594-3fae-e55ac6fd7ccb.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-before_05.10.2017-Benign_nevi_not_secured_diagnosis-non_dynamic-Benign_nevi_not_secured_diagnosis-non_dynamic-1-fotofinder2007_0705121411_ffi_230996.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>5564a733-a37c-b030-c262-a512739cc2e6.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/5564a733-a37c-b030-c262-a512739cc2e6.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-before_05.10.2017-Benign_nevi_not_secured_diagnosis-non_dynamic-Benign_nevi_not_secured_diagnosis-non_dynamic-1-fotofinder2007_0705121412_ffi_230998.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>c0003ce3-6698-4b9b-a4f7-ea886f3a050d.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/c0003ce3-6698-4b9b-a4f7-ea886f3a050d.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-before_05.10.2017-Benign_nevi_not_secured_diagnosis-non_dynamic-Benign_nevi_not_secured_diagnosis-non_dynamic-1-fotofinder2007_0705121412_ffi_230999.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>b6d51dbf-967d-736b-36ff-2396d3009d26.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/b6d51dbf-967d-736b-36ff-2396d3009d26.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-before_05.10.2017-Benign_nevi_not_secured_diagnosis-non_dynamic-Benign_nevi_not_secured_diagnosis-non_dynamic-2-benign_non_dynamic_dr_rund-fotofinder2007_0503151733_ffi_06799.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>13db4e47-9773-f268-29f7-abbc9b900001.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/13db4e47-9773-f268-29f7-abbc9b900001.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-before_05.10.2017-Benign_nevi_not_secured_diagnosis-non_dynamic-Benign_nevi_not_secured_diagnosis-non_dynamic-2-benign_non_dynamic_dr_rund-fotofinder2007_0503151733_ffi_06800.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>61f637e9-ae09-4201-6962-585a8c065403.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/61f637e9-ae09-4201-6962-585a8c065403.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-before_05.10.2017-Benign_nevi_not_secured_diagnosis-non_dynamic-Benign_nevi_not_secured_diagnosis-non_dynamic-2-benign_non_dynamic_dr_rund-fotofinder2007_0504131110_ffi_01197.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>f3c0543a-6191-a647-5230-2a7defe9f578.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/f3c0543a-6191-a647-5230-2a7defe9f578.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-before_05.10.2017-Benign_nevi_not_secured_diagnosis-non_dynamic-Benign_nevi_not_secured_diagnosis-non_dynamic-2-benign_non_dynamic_dr_rund-fotofinder2007_0506141419_ffi_04778.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>7b8d190f-1bf1-d6c8-73d6-caab72f90dfa.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/7b8d190f-1bf1-d6c8-73d6-caab72f90dfa.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-before_05.10.2017-Benign_nevi_not_secured_diagnosis-non_dynamic-Benign_nevi_not_secured_diagnosis-non_dynamic-1-fotofinder2007_0705140905_ffi_286690.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>fe0dbcdf-1f09-a732-efa6-ce365905daf0.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/fe0dbcdf-1f09-a732-efa6-ce365905daf0.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-before_05.10.2017-Benign_nevi_not_secured_diagnosis-non_dynamic-Benign_nevi_not_secured_diagnosis-non_dynamic-1-fotofinder2007_0705140906_ffi_286693.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>49d32d0d-597a-183f-c332-4525801ca51b.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/49d32d0d-597a-183f-c332-4525801ca51b.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-before_05.10.2017-Benign_nevi_not_secured_diagnosis-non_dynamic-Benign_nevi_not_secured_diagnosis-non_dynamic-1-fotofinder2007_0705140906_ffi_286694.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>3bd5a5a5-9df3-9ddf-bfdb-e3492f1a1b34.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/3bd5a5a5-9df3-9ddf-bfdb-e3492f1a1b34.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-before_05.10.2017-Benign_nevi_not_secured_diagnosis-non_dynamic-Benign_nevi_not_secured_diagnosis-non_dynamic-1-fotofinder2007_0705150857_ffi_314616.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>4dff7cbc-286a-aad0-b966-dea370adc927.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/4dff7cbc-286a-aad0-b966-dea370adc927.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-22.01.2019-Kani_Clinic-Angioma-angioma_028.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>f6526833-ed35-2213-d120-bcfb063b45d1.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/f6526833-ed35-2213-d120-bcfb063b45d1.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-22.01.2019-Kani_Clinic-Angioma-angioma_029.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>6e7ae891-67fa-efb3-747e-d6c8046d4e98.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/6e7ae891-67fa-efb3-747e-d6c8046d4e98.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-22.01.2019-Kani_Clinic-Angioma-angioma_030.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>c1f779b6-2981-6341-1827-8e126b7d49e5.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/c1f779b6-2981-6341-1827-8e126b7d49e5.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-22.01.2019-Kani_Clinic-Angioma-angioma_031.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>44279145-18ec-4cb8-d0bb-8adf44593bfc.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/44279145-18ec-4cb8-d0bb-8adf44593bfc.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-22.01.2019-Kani_Clinic-BCC-bcc(1).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>010882f0-d321-2dad-e98b-9d139f546c04.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/010882f0-d321-2dad-e98b-9d139f546c04.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-22.01.2019-Kani_Clinic-BCC-bcc(10).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>b94c28b1-8ae8-0b7d-ac50-acc4d68824f3.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/b94c28b1-8ae8-0b7d-ac50-acc4d68824f3.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-22.01.2019-Kani_Clinic-BCC-bcc(11).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>e13fc9a9-afe2-5f13-ca6a-1030222f115c.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/e13fc9a9-afe2-5f13-ca6a-1030222f115c.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-22.01.2019-Kani_Clinic-BCC-bcc(12).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>6a0057ae-49d0-401a-947d-0a3d161a3bfa.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/6a0057ae-49d0-401a-947d-0a3d161a3bfa.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-07.2020_c_m-micro-4071_micro_Ūdris valdis c1653318.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>3df671e8-0edb-4df4-72a3-a4e3ed9426c2.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/3df671e8-0edb-4df4-72a3-a4e3ed9426c2.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-07.2020_c_m-micro-4073_micro_karls raimonds s2599114.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>1939d70b-95a0-8b34-fc13-bf862c23d9cc.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/1939d70b-95a0-8b34-fc13-bf862c23d9cc.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-07.2020_c_m-micro-4074_micro_Ūdris valdis c1653316.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>46a6cbba-6c61-9eb2-1a23-8e5409c676fd.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/46a6cbba-6c61-9eb2-1a23-8e5409c676fd.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-07.2020_c_m-micro-4076_micro_Ūdris valdis c1653314.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>1af1563f-5d95-0e0d-6922-f7aceb28535a.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/1af1563f-5d95-0e0d-6922-f7aceb28535a.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-07.2020_c_m-micro-4077_micro_thurman john c1844015.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>3b94605b-2d7f-0d8b-974a-16e51e5a2c1a.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/3b94605b-2d7f-0d8b-974a-16e51e5a2c1a.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-07.2020_c_m-micro-4078_micro_sparāne Ļubova c1752116.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>7007a58a-a65c-5029-ca78-1a83f99d6eb9.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/7007a58a-a65c-5029-ca78-1a83f99d6eb9.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-07.2020_c_m-micro-4079_micro_gailītis jānis c1652816.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>e3fb36c2-e675-5fee-6a6d-8ca6dac532e5.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/e3fb36c2-e675-5fee-6a6d-8ca6dac532e5.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-07.2020_c_m-micro-407_micro_dsc00344.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>f7059ed1-8b84-08e3-5ff8-b51bc9d30c98.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/f7059ed1-8b84-08e3-5ff8-b51bc9d30c98.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-07.2020_c_m-micro-4080_micro_gustsons juris s1467726.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>66e39666-ccf1-a112-ffac-27935e02950c.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/66e39666-ccf1-a112-ffac-27935e02950c.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-before_05.10.2017-Benign_nevi_not_secured_diagnosis-non_dynamic-Benign_schirren_ID1-531-Accepted-fotofinderuniverse_2504130000_ffi_004430_converted.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>e8b0d940-fd1c-31f9-fca4-82c6728a0d4a.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/e8b0d940-fd1c-31f9-fca4-82c6728a0d4a.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-before_05.10.2017-Benign_nevi_not_secured_diagnosis-non_dynamic-Benign_schirren_ID1-531-Accepted-fotofinderuniverse_2504130000_ffi_004433_converted.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>1b7f3a1f-4439-fc46-9ed7-f7ad75aa9834.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/1b7f3a1f-4439-fc46-9ed7-f7ad75aa9834.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-before_05.10.2017-Benign_nevi_not_secured_diagnosis-non_dynamic-Benign_schirren_ID1-531-Accepted-fotofinderuniverse_2505050000_ffi_011000_converted.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>636211f0-b9d0-8b1e-0bd3-809db4863354.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/636211f0-b9d0-8b1e-0bd3-809db4863354.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-before_05.10.2017-Benign_nevi_not_secured_diagnosis-non_dynamic-Benign_schirren_ID1-531-Accepted-fotofinderuniverse_2505050000_ffi_011001_converted.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>9718b48c-9016-c1a9-c567-82851db3fb88.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/9718b48c-9016-c1a9-c567-82851db3fb88.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-before_05.10.2017-Benign_nevi_not_secured_diagnosis-non_dynamic-Benign_schirren_ID1-531-Accepted-fotofinderuniverse_2505050000_ffi_011002_converted.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>3f8f717c-fb33-7b5f-f026-a8ebe32acf84.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/3f8f717c-fb33-7b5f-f026-a8ebe32acf84.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-before_05.10.2017-Benign_nevi_not_secured_diagnosis-non_dynamic-Benign_schirren_ID1-531-Accepted-fotofinderuniverse_0304140000_ffi_007375_converted.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>d8e7ec4d-1592-8974-3715-b3f049267c49.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/d8e7ec4d-1592-8974-3715-b3f049267c49.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-before_05.10.2017-Benign_nevi_not_secured_diagnosis-non_dynamic-Benign_schirren_ID1-531-Accepted-fotofinderuniverse_0305070000_ffi_004493_converted.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>aacbda5f-1203-d098-ccb5-ab38248b17f7.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/aacbda5f-1203-d098-ccb5-ab38248b17f7.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-before_05.10.2017-Benign_nevi_not_secured_diagnosis-non_dynamic-Benign_schirren_ID1-531-Accepted-fotofinderuniverse_0305070000_ffi_004495_converted.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>58cc4ded-c08e-1b8c-149d-7e0989d765e7.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/58cc4ded-c08e-1b8c-149d-7e0989d765e7.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-before_05.10.2017-Benign_nevi_not_secured_diagnosis-non_dynamic-Benign_schirren_ID1-531-Accepted-fotofinderuniverse_0305070000_ffi_004497_converted.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>a3a949d9-51ae-765a-5d79-beb2fc397447.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/a3a949d9-51ae-765a-5d79-beb2fc397447.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-before_05.10.2017-Benign_nevi_not_secured_diagnosis-non_dynamic-Benign_schirren_ID1-531-Accepted-fotofinderuniverse_0305070000_ffi_004498_converted.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>175c1bb7-e01f-143f-081b-4ee46b1e87ab.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/175c1bb7-e01f-143f-081b-4ee46b1e87ab.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-before_05.10.2017-Benign_nevi_not_secured_diagnosis-non_dynamic-Benign_schirren_ID1-531-Accepted-fotofinderuniverse_0305070000_ffi_004499_converted.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>32a38b42-55a8-0ec8-54b5-32babf8257dc.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/32a38b42-55a8-0ec8-54b5-32babf8257dc.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-before_05.10.2017-Benign_nevi_not_secured_diagnosis-non_dynamic-Benign_schirren_ID1-531-Accepted-fotofinderuniverse_0305070000_ffi_004501_converted.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>6e32fc53-8e05-96af-fd43-97b87c23dfd8.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/6e32fc53-8e05-96af-fd43-97b87c23dfd8.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-before_05.10.2017-Benign_nevi_not_secured_diagnosis-non_dynamic-Benign_schirren_ID1-531-Accepted-fotofinderuniverse_0306030000_ffi_007580_converted.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>164de8fd-16b4-f457-ecb1-5f083efb1f21.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/164de8fd-16b4-f457-ecb1-5f083efb1f21.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-before_05.10.2017-Benign_nevi_not_secured_diagnosis-non_dynamic-Benign_schirren_ID1-531-Accepted-fotofinderuniverse_0306030000_ffi_007582_converted.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>2c9b5cc9-40c0-7940-d846-4f34be1eb6c2.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/2c9b5cc9-40c0-7940-d846-4f34be1eb6c2.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-before_05.10.2017-Benign_nevi_not_secured_diagnosis-non_dynamic-Benign_nevi_not_secured_diagnosis-non_dynamic-2-benign_non_dynamic_dr_rund-fotofinder2007_2404140856_ffi_04418.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>ac1a9744-908d-6b81-07c0-92e3471b0d2f.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/ac1a9744-908d-6b81-07c0-92e3471b0d2f.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-before_05.10.2017-Benign_nevi_not_secured_diagnosis-non_dynamic-Benign_nevi_not_secured_diagnosis-non_dynamic-2-benign_non_dynamic_dr_rund-fotofinder2007_2406160745_ffi_09582.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>d8da6f80-1a41-6ecb-a0aa-97ca55887d0a.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/d8da6f80-1a41-6ecb-a0aa-97ca55887d0a.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-before_05.10.2017-Benign_nevi_not_secured_diagnosis-non_dynamic-Benign_nevi_not_secured_diagnosis-non_dynamic-2-benign_non_dynamic_dr_rund-fotofinder2007_2407131029_ffi_02154.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>a1e51fec-c059-07a1-b59d-c31ceba02b3d.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/a1e51fec-c059-07a1-b59d-c31ceba02b3d.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-before_05.10.2017-Benign_nevi_not_secured_diagnosis-non_dynamic-Benign_nevi_not_secured_diagnosis-non_dynamic-2-benign_non_dynamic_dr_rund-fotofinder2007_2407131032_ffi_02161.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>252b83a8-118c-67ee-c384-0892ccd27a31.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/252b83a8-118c-67ee-c384-0892ccd27a31.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-before_05.10.2017-Benign_nevi_not_secured_diagnosis-non_dynamic-Benign_nevi_not_secured_diagnosis-non_dynamic-2-benign_non_dynamic_dr_rund-fotofinder2007_2409131443_ffi_02551.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>259c2cdb-92b7-b828-8497-a89c308b0914.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/259c2cdb-92b7-b828-8497-a89c308b0914.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-03.04.2018-Kreusch-normal nevus-nevus_normal(67).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>e42e559a-0b82-87c6-0235-f8f5aed2af40.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/e42e559a-0b82-87c6-0235-f8f5aed2af40.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-03.04.2018-Tromme-in situ melanomas (including SSM, Lentigo maligna and acral lentigo maligna )-melanomainsitu(53).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>27443fd8-9290-fc6f-ba26-3c4ad184b5b4.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/27443fd8-9290-fc6f-ba26-3c4ad184b5b4.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-06.12.2017-Invalid_Hair-invalid hair (30).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>5778c958-8e91-71ef-fe0f-bd5fdbe1859e.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/5778c958-8e91-71ef-fe0f-bd5fdbe1859e.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-07.2020_c_m-micro-1069_micro_dsc05625.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>8a78c06c-a291-278a-f8e7-25900016e87d.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/8a78c06c-a291-278a-f8e7-25900016e87d.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-07.2020_c_m-micro-1341_micro_dsc00833.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>e9b932db-dffc-aed1-0ebb-af85bc25cd0d.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/e9b932db-dffc-aed1-0ebb-af85bc25cd0d.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-07.2020_c_m-micro-1491_micro_dsc07207.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>c429ac05-447c-7632-8f65-c8e11e1049ac.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/c429ac05-447c-7632-8f65-c8e11e1049ac.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-07.2020_c_m-micro-1682_micro_dsc05616.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>16a6f525-22e7-ae24-4023-179dbf056460.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/16a6f525-22e7-ae24-4023-179dbf056460.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-07.2020_c_m-micro-1857_micro_dsc00898.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>9f0c1a99-603e-0750-8579-28e23b6858b3.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/9f0c1a99-603e-0750-8579-28e23b6858b3.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-07.2020_c_m-micro-2060_micro_dsc00237.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>d75edbe3-7fbb-a168-9894-b82de647db3c.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/d75edbe3-7fbb-a168-9894-b82de647db3c.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-07.2020_c_m-micro-2278_micro_case 8 (3).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>086be990-1e3e-dc3a-267e-4570a36a473f.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/086be990-1e3e-dc3a-267e-4570a36a473f.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-07.2020_c_m-micro-2516_micro_case 1 (2).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>fe9ee979-e181-6368-5059-17c9e64df98e.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/fe9ee979-e181-6368-5059-17c9e64df98e.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-07.2020_c_m-micro-2730_micro_dsc07873.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>a4239e08-33a6-f254-6d5a-fecf5e1be4e5.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/a4239e08-33a6-f254-6d5a-fecf5e1be4e5.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-07.2020_c_m-micro-2907_micro_case 2 (5).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>7a7b7b56-fd34-f5c9-1ee6-63d0e091bad6.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/7a7b7b56-fd34-f5c9-1ee6-63d0e091bad6.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-07.2020_c_m-micro-3061_micro_case 8 (5).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>30695458-7bb2-6491-7719-dbde56f11665.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/30695458-7bb2-6491-7719-dbde56f11665.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-07.2020_c_m-micro-3216_micro_case 11 (6).jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>4cd0fa08-ce7b-d755-bb03-9ae945112955.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/4cd0fa08-ce7b-d755-bb03-9ae945112955.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-07.2020_c_m-micro-3353_micro_dsc07804.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>be299fb1-0e77-5bda-72f8-84712422d74a.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/be299fb1-0e77-5bda-72f8-84712422d74a.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-07.2020_c_m-micro-3561_micro_dsc00242.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>1b63bb69-9a59-47f6-067e-8a202e7327c0.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/1b63bb69-9a59-47f6-067e-8a202e7327c0.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Benign_nevi-HAM10000-isic_0026292.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>5cc2b854-44ea-355a-a558-95e4d6b6f01a.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/5cc2b854-44ea-355a-a558-95e4d6b6f01a.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Benign_nevi-HAM10000-isic_0026293.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>7deefa96-becb-c110-cc5d-d4617c82dc6c.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/7deefa96-becb-c110-cc5d-d4617c82dc6c.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Benign_nevi-HAM10000-isic_0026294.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>ab8207b3-283f-5730-9b1f-410b204ae3f6.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/ab8207b3-283f-5730-9b1f-410b204ae3f6.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Benign_nevi-HAM10000-isic_0026295.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>aaa59d54-b03e-6950-f284-4e1a4ff49890.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/aaa59d54-b03e-6950-f284-4e1a4ff49890.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Benign_nevi-HAM10000-isic_0026297.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>4ffbe3d9-e9a3-5b5d-c46c-98b03fa5d0b3.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/4ffbe3d9-e9a3-5b5d-c46c-98b03fa5d0b3.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Benign_nevi-HAM10000-isic_0026299.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>aaad5b34-9236-9eff-b504-4741a5e30b55.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/aaad5b34-9236-9eff-b504-4741a5e30b55.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Benign_nevi-HAM10000-isic_0026300.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>b86ebd2b-e6f0-02ed-db2c-6e8cf1d39e9e.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/b86ebd2b-e6f0-02ed-db2c-6e8cf1d39e9e.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Benign_nevi-HAM10000-isic_0026302.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>5f2e013e-126c-4599-39fa-b2760dd03c1b.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/5f2e013e-126c-4599-39fa-b2760dd03c1b.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Benign_nevi-SONIC-isic_0007948.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>37677ab3-5b88-86b4-7e8d-536d02c5ae92.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/37677ab3-5b88-86b4-7e8d-536d02c5ae92.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Benign_nevi-SONIC-isic_0007958.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>f21e7d88-54b3-81bd-29cf-2806794817fb.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/f21e7d88-54b3-81bd-29cf-2806794817fb.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Benign_nevi-SONIC-isic_0007971.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>e53f9b3c-644e-8ecb-e9c6-124eacc4d85c.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/e53f9b3c-644e-8ecb-e9c6-124eacc4d85c.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Benign_nevi-SONIC-isic_0007980.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>7ae7b12b-80cc-6de3-5670-f78011e67383.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/7ae7b12b-80cc-6de3-5670-f78011e67383.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Benign_nevi-SONIC-isic_0007989.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>a8a51bab-fb7f-892f-efb4-2c8c4fd79bd6.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/a8a51bab-fb7f-892f-efb4-2c8c4fd79bd6.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Benign_nevi-SONIC-isic_0008002.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>5cccc2ee-d834-0914-4c89-0ea1582f408e.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/5cccc2ee-d834-0914-4c89-0ea1582f408e.png</t>
+  </si>
+  <si>
+    <t>-media-dev-cnn-10.08.2018-Benign_nevi-SONIC-isic_0008011.jpg_@m_.png</t>
+  </si>
+  <si>
+    <t>4ed1134a-c8f0-5a0d-4d0f-fcad62c5ae60.png</t>
+  </si>
+  <si>
+    <t>/mnt/devnas/Kooperationen_Bilder_Diagnosen/HashedTrainData/dermoscopic/4ed1134a-c8f0-5a0d-4d0f-fcad62c5ae60.png</t>
   </si>
 </sst>
 </file>
@@ -3124,10 +6751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D203"/>
   <sheetViews>
     <sheetView topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101"/>
+      <selection activeCell="Q100" sqref="Q100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4546,6 +8173,1434 @@
         <v>304</v>
       </c>
     </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>905</v>
+      </c>
+      <c r="B102" t="s">
+        <v>906</v>
+      </c>
+      <c r="C102" t="s">
+        <v>907</v>
+      </c>
+      <c r="D102" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>909</v>
+      </c>
+      <c r="B103" t="s">
+        <v>906</v>
+      </c>
+      <c r="C103" t="s">
+        <v>910</v>
+      </c>
+      <c r="D103" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>912</v>
+      </c>
+      <c r="B104" t="s">
+        <v>906</v>
+      </c>
+      <c r="C104" t="s">
+        <v>913</v>
+      </c>
+      <c r="D104" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>915</v>
+      </c>
+      <c r="B105" t="s">
+        <v>906</v>
+      </c>
+      <c r="C105" t="s">
+        <v>916</v>
+      </c>
+      <c r="D105" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>918</v>
+      </c>
+      <c r="B106" t="s">
+        <v>906</v>
+      </c>
+      <c r="C106" t="s">
+        <v>919</v>
+      </c>
+      <c r="D106" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>921</v>
+      </c>
+      <c r="B107" t="s">
+        <v>906</v>
+      </c>
+      <c r="C107" t="s">
+        <v>922</v>
+      </c>
+      <c r="D107" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>924</v>
+      </c>
+      <c r="B108" t="s">
+        <v>906</v>
+      </c>
+      <c r="C108" t="s">
+        <v>925</v>
+      </c>
+      <c r="D108" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>927</v>
+      </c>
+      <c r="B109" t="s">
+        <v>906</v>
+      </c>
+      <c r="C109" t="s">
+        <v>928</v>
+      </c>
+      <c r="D109" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>930</v>
+      </c>
+      <c r="B110" t="s">
+        <v>906</v>
+      </c>
+      <c r="C110" t="s">
+        <v>931</v>
+      </c>
+      <c r="D110" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>933</v>
+      </c>
+      <c r="B111" t="s">
+        <v>906</v>
+      </c>
+      <c r="C111" t="s">
+        <v>934</v>
+      </c>
+      <c r="D111" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>936</v>
+      </c>
+      <c r="B112" t="s">
+        <v>906</v>
+      </c>
+      <c r="C112" t="s">
+        <v>937</v>
+      </c>
+      <c r="D112" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>939</v>
+      </c>
+      <c r="B113" t="s">
+        <v>906</v>
+      </c>
+      <c r="C113" t="s">
+        <v>940</v>
+      </c>
+      <c r="D113" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>942</v>
+      </c>
+      <c r="B114" t="s">
+        <v>906</v>
+      </c>
+      <c r="C114" t="s">
+        <v>943</v>
+      </c>
+      <c r="D114" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>945</v>
+      </c>
+      <c r="B115" t="s">
+        <v>906</v>
+      </c>
+      <c r="C115" t="s">
+        <v>946</v>
+      </c>
+      <c r="D115" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>948</v>
+      </c>
+      <c r="B116" t="s">
+        <v>906</v>
+      </c>
+      <c r="C116" t="s">
+        <v>949</v>
+      </c>
+      <c r="D116" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>951</v>
+      </c>
+      <c r="B117" t="s">
+        <v>906</v>
+      </c>
+      <c r="C117" t="s">
+        <v>952</v>
+      </c>
+      <c r="D117" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>954</v>
+      </c>
+      <c r="B118" t="s">
+        <v>906</v>
+      </c>
+      <c r="C118" t="s">
+        <v>955</v>
+      </c>
+      <c r="D118" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>957</v>
+      </c>
+      <c r="B119" t="s">
+        <v>906</v>
+      </c>
+      <c r="C119" t="s">
+        <v>958</v>
+      </c>
+      <c r="D119" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>960</v>
+      </c>
+      <c r="B120" t="s">
+        <v>906</v>
+      </c>
+      <c r="C120" t="s">
+        <v>961</v>
+      </c>
+      <c r="D120" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>963</v>
+      </c>
+      <c r="B121" t="s">
+        <v>906</v>
+      </c>
+      <c r="C121" t="s">
+        <v>964</v>
+      </c>
+      <c r="D121" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>966</v>
+      </c>
+      <c r="B122" t="s">
+        <v>906</v>
+      </c>
+      <c r="C122" t="s">
+        <v>967</v>
+      </c>
+      <c r="D122" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>969</v>
+      </c>
+      <c r="B123" t="s">
+        <v>906</v>
+      </c>
+      <c r="C123" t="s">
+        <v>970</v>
+      </c>
+      <c r="D123" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>972</v>
+      </c>
+      <c r="B124" t="s">
+        <v>906</v>
+      </c>
+      <c r="C124" t="s">
+        <v>973</v>
+      </c>
+      <c r="D124" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>975</v>
+      </c>
+      <c r="B125" t="s">
+        <v>906</v>
+      </c>
+      <c r="C125" t="s">
+        <v>976</v>
+      </c>
+      <c r="D125" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>978</v>
+      </c>
+      <c r="B126" t="s">
+        <v>906</v>
+      </c>
+      <c r="C126" t="s">
+        <v>979</v>
+      </c>
+      <c r="D126" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>981</v>
+      </c>
+      <c r="B127" t="s">
+        <v>906</v>
+      </c>
+      <c r="C127" t="s">
+        <v>982</v>
+      </c>
+      <c r="D127" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>984</v>
+      </c>
+      <c r="B128" t="s">
+        <v>906</v>
+      </c>
+      <c r="C128" t="s">
+        <v>985</v>
+      </c>
+      <c r="D128" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>987</v>
+      </c>
+      <c r="B129" t="s">
+        <v>906</v>
+      </c>
+      <c r="C129" t="s">
+        <v>988</v>
+      </c>
+      <c r="D129" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>990</v>
+      </c>
+      <c r="B130" t="s">
+        <v>906</v>
+      </c>
+      <c r="C130" t="s">
+        <v>991</v>
+      </c>
+      <c r="D130" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>993</v>
+      </c>
+      <c r="B131" t="s">
+        <v>906</v>
+      </c>
+      <c r="C131" t="s">
+        <v>994</v>
+      </c>
+      <c r="D131" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>996</v>
+      </c>
+      <c r="B132" t="s">
+        <v>906</v>
+      </c>
+      <c r="C132" t="s">
+        <v>997</v>
+      </c>
+      <c r="D132" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>999</v>
+      </c>
+      <c r="B133" t="s">
+        <v>906</v>
+      </c>
+      <c r="C133" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D133" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B134" t="s">
+        <v>906</v>
+      </c>
+      <c r="C134" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D134" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B135" t="s">
+        <v>906</v>
+      </c>
+      <c r="C135" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D135" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B136" t="s">
+        <v>906</v>
+      </c>
+      <c r="C136" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D136" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B137" t="s">
+        <v>906</v>
+      </c>
+      <c r="C137" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D137" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B138" t="s">
+        <v>906</v>
+      </c>
+      <c r="C138" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D138" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B139" t="s">
+        <v>906</v>
+      </c>
+      <c r="C139" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D139" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B140" t="s">
+        <v>906</v>
+      </c>
+      <c r="C140" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D140" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B141" t="s">
+        <v>906</v>
+      </c>
+      <c r="C141" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D141" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B142" t="s">
+        <v>906</v>
+      </c>
+      <c r="C142" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D142" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B143" t="s">
+        <v>906</v>
+      </c>
+      <c r="C143" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D143" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B144" t="s">
+        <v>906</v>
+      </c>
+      <c r="C144" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D144" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B145" t="s">
+        <v>906</v>
+      </c>
+      <c r="C145" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D145" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B146" t="s">
+        <v>906</v>
+      </c>
+      <c r="C146" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D146" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B147" t="s">
+        <v>906</v>
+      </c>
+      <c r="C147" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D147" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B148" t="s">
+        <v>906</v>
+      </c>
+      <c r="C148" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D148" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B149" t="s">
+        <v>906</v>
+      </c>
+      <c r="C149" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D149" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B150" t="s">
+        <v>906</v>
+      </c>
+      <c r="C150" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D150" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B151" t="s">
+        <v>906</v>
+      </c>
+      <c r="C151" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D151" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B152" t="s">
+        <v>906</v>
+      </c>
+      <c r="C152" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D152" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B153" t="s">
+        <v>906</v>
+      </c>
+      <c r="C153" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D153" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B154" t="s">
+        <v>906</v>
+      </c>
+      <c r="C154" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D154" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B155" t="s">
+        <v>906</v>
+      </c>
+      <c r="C155" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D155" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B156" t="s">
+        <v>906</v>
+      </c>
+      <c r="C156" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D156" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B157" t="s">
+        <v>906</v>
+      </c>
+      <c r="C157" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D157" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B158" t="s">
+        <v>906</v>
+      </c>
+      <c r="C158" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D158" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B159" t="s">
+        <v>906</v>
+      </c>
+      <c r="C159" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D159" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B160" t="s">
+        <v>906</v>
+      </c>
+      <c r="C160" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D160" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B161" t="s">
+        <v>906</v>
+      </c>
+      <c r="C161" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D161" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B162" t="s">
+        <v>906</v>
+      </c>
+      <c r="C162" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D162" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B163" t="s">
+        <v>906</v>
+      </c>
+      <c r="C163" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D163" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B164" t="s">
+        <v>906</v>
+      </c>
+      <c r="C164" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D164" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B165" t="s">
+        <v>906</v>
+      </c>
+      <c r="C165" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D165" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B166" t="s">
+        <v>906</v>
+      </c>
+      <c r="C166" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D166" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B167" t="s">
+        <v>906</v>
+      </c>
+      <c r="C167" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D167" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B168" t="s">
+        <v>906</v>
+      </c>
+      <c r="C168" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D168" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B169" t="s">
+        <v>906</v>
+      </c>
+      <c r="C169" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D169" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B170" t="s">
+        <v>906</v>
+      </c>
+      <c r="C170" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D170" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B171" t="s">
+        <v>906</v>
+      </c>
+      <c r="C171" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D171" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B172" t="s">
+        <v>906</v>
+      </c>
+      <c r="C172" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D172" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B173" t="s">
+        <v>906</v>
+      </c>
+      <c r="C173" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D173" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B174" t="s">
+        <v>906</v>
+      </c>
+      <c r="C174" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D174" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B175" t="s">
+        <v>906</v>
+      </c>
+      <c r="C175" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D175" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B176" t="s">
+        <v>906</v>
+      </c>
+      <c r="C176" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D176" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B177" t="s">
+        <v>906</v>
+      </c>
+      <c r="C177" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D177" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B178" t="s">
+        <v>906</v>
+      </c>
+      <c r="C178" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D178" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B179" t="s">
+        <v>906</v>
+      </c>
+      <c r="C179" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D179" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B180" t="s">
+        <v>906</v>
+      </c>
+      <c r="C180" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D180" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B181" t="s">
+        <v>906</v>
+      </c>
+      <c r="C181" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D181" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B182" t="s">
+        <v>906</v>
+      </c>
+      <c r="C182" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D182" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B183" t="s">
+        <v>906</v>
+      </c>
+      <c r="C183" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D183" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B184" t="s">
+        <v>906</v>
+      </c>
+      <c r="C184" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D184" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B185" t="s">
+        <v>906</v>
+      </c>
+      <c r="C185" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D185" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B186" t="s">
+        <v>906</v>
+      </c>
+      <c r="C186" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D186" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B187" t="s">
+        <v>906</v>
+      </c>
+      <c r="C187" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D187" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B188" t="s">
+        <v>906</v>
+      </c>
+      <c r="C188" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D188" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B189" t="s">
+        <v>906</v>
+      </c>
+      <c r="C189" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D189" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B190" t="s">
+        <v>906</v>
+      </c>
+      <c r="C190" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D190" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B191" t="s">
+        <v>906</v>
+      </c>
+      <c r="C191" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D191" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B192" t="s">
+        <v>906</v>
+      </c>
+      <c r="C192" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D192" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B193" t="s">
+        <v>906</v>
+      </c>
+      <c r="C193" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D193" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B194" t="s">
+        <v>906</v>
+      </c>
+      <c r="C194" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D194" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B195" t="s">
+        <v>906</v>
+      </c>
+      <c r="C195" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D195" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B196" t="s">
+        <v>906</v>
+      </c>
+      <c r="C196" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D196" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B197" t="s">
+        <v>906</v>
+      </c>
+      <c r="C197" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D197" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B198" t="s">
+        <v>906</v>
+      </c>
+      <c r="C198" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D198" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B199" t="s">
+        <v>906</v>
+      </c>
+      <c r="C199" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D199" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B200" t="s">
+        <v>906</v>
+      </c>
+      <c r="C200" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D200" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B201" t="s">
+        <v>906</v>
+      </c>
+      <c r="C201" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D201" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B202" t="s">
+        <v>906</v>
+      </c>
+      <c r="C202" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D202" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B203" t="s">
+        <v>906</v>
+      </c>
+      <c r="C203" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D203" t="s">
+        <v>1211</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4553,9 +9608,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D201"/>
+  <dimension ref="A1:D503"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="A202" sqref="A202:O503"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -7373,6 +12430,4234 @@
         <v>904</v>
       </c>
     </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B202" t="s">
+        <v>906</v>
+      </c>
+      <c r="C202" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D202" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B203" t="s">
+        <v>906</v>
+      </c>
+      <c r="C203" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D203" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B204" t="s">
+        <v>906</v>
+      </c>
+      <c r="C204" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D204" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B205" t="s">
+        <v>906</v>
+      </c>
+      <c r="C205" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D205" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B206" t="s">
+        <v>906</v>
+      </c>
+      <c r="C206" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D206" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B207" t="s">
+        <v>906</v>
+      </c>
+      <c r="C207" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D207" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B208" t="s">
+        <v>906</v>
+      </c>
+      <c r="C208" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D208" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B209" t="s">
+        <v>906</v>
+      </c>
+      <c r="C209" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D209" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B210" t="s">
+        <v>906</v>
+      </c>
+      <c r="C210" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D210" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B211" t="s">
+        <v>906</v>
+      </c>
+      <c r="C211" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D211" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B212" t="s">
+        <v>906</v>
+      </c>
+      <c r="C212" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D212" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B213" t="s">
+        <v>906</v>
+      </c>
+      <c r="C213" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D213" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A214" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B214" t="s">
+        <v>906</v>
+      </c>
+      <c r="C214" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D214" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A215" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B215" t="s">
+        <v>906</v>
+      </c>
+      <c r="C215" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D215" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A216" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B216" t="s">
+        <v>906</v>
+      </c>
+      <c r="C216" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D216" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A217" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B217" t="s">
+        <v>906</v>
+      </c>
+      <c r="C217" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D217" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B218" t="s">
+        <v>906</v>
+      </c>
+      <c r="C218" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D218" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B219" t="s">
+        <v>906</v>
+      </c>
+      <c r="C219" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D219" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B220" t="s">
+        <v>906</v>
+      </c>
+      <c r="C220" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D220" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A221" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B221" t="s">
+        <v>906</v>
+      </c>
+      <c r="C221" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D221" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B222" t="s">
+        <v>906</v>
+      </c>
+      <c r="C222" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D222" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A223" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B223" t="s">
+        <v>906</v>
+      </c>
+      <c r="C223" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D223" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A224" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B224" t="s">
+        <v>906</v>
+      </c>
+      <c r="C224" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D224" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B225" t="s">
+        <v>906</v>
+      </c>
+      <c r="C225" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D225" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B226" t="s">
+        <v>906</v>
+      </c>
+      <c r="C226" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D226" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A227" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B227" t="s">
+        <v>906</v>
+      </c>
+      <c r="C227" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D227" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B228" t="s">
+        <v>906</v>
+      </c>
+      <c r="C228" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D228" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B229" t="s">
+        <v>906</v>
+      </c>
+      <c r="C229" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D229" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A230" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B230" t="s">
+        <v>906</v>
+      </c>
+      <c r="C230" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D230" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A231" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B231" t="s">
+        <v>906</v>
+      </c>
+      <c r="C231" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D231" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A232" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B232" t="s">
+        <v>906</v>
+      </c>
+      <c r="C232" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D232" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A233" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B233" t="s">
+        <v>906</v>
+      </c>
+      <c r="C233" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D233" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A234" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B234" t="s">
+        <v>906</v>
+      </c>
+      <c r="C234" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D234" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A235" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B235" t="s">
+        <v>906</v>
+      </c>
+      <c r="C235" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D235" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A236" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B236" t="s">
+        <v>906</v>
+      </c>
+      <c r="C236" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D236" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A237" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B237" t="s">
+        <v>906</v>
+      </c>
+      <c r="C237" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D237" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A238" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B238" t="s">
+        <v>906</v>
+      </c>
+      <c r="C238" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D238" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A239" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B239" t="s">
+        <v>906</v>
+      </c>
+      <c r="C239" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D239" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A240" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B240" t="s">
+        <v>906</v>
+      </c>
+      <c r="C240" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D240" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A241" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B241" t="s">
+        <v>906</v>
+      </c>
+      <c r="C241" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D241" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A242" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B242" t="s">
+        <v>906</v>
+      </c>
+      <c r="C242" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D242" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A243" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B243" t="s">
+        <v>906</v>
+      </c>
+      <c r="C243" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D243" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A244" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B244" t="s">
+        <v>906</v>
+      </c>
+      <c r="C244" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D244" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A245" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B245" t="s">
+        <v>906</v>
+      </c>
+      <c r="C245" t="s">
+        <v>1342</v>
+      </c>
+      <c r="D245" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A246" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B246" t="s">
+        <v>906</v>
+      </c>
+      <c r="C246" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D246" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A247" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B247" t="s">
+        <v>906</v>
+      </c>
+      <c r="C247" t="s">
+        <v>1348</v>
+      </c>
+      <c r="D247" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A248" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B248" t="s">
+        <v>906</v>
+      </c>
+      <c r="C248" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D248" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A249" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B249" t="s">
+        <v>906</v>
+      </c>
+      <c r="C249" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D249" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A250" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B250" t="s">
+        <v>906</v>
+      </c>
+      <c r="C250" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D250" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A251" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B251" t="s">
+        <v>906</v>
+      </c>
+      <c r="C251" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D251" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A252" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B252" t="s">
+        <v>906</v>
+      </c>
+      <c r="C252" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D252" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A253" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B253" t="s">
+        <v>906</v>
+      </c>
+      <c r="C253" t="s">
+        <v>1366</v>
+      </c>
+      <c r="D253" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A254" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B254" t="s">
+        <v>906</v>
+      </c>
+      <c r="C254" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D254" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A255" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B255" t="s">
+        <v>906</v>
+      </c>
+      <c r="C255" t="s">
+        <v>1372</v>
+      </c>
+      <c r="D255" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A256" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B256" t="s">
+        <v>906</v>
+      </c>
+      <c r="C256" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D256" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A257" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B257" t="s">
+        <v>906</v>
+      </c>
+      <c r="C257" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D257" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A258" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B258" t="s">
+        <v>906</v>
+      </c>
+      <c r="C258" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D258" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A259" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B259" t="s">
+        <v>906</v>
+      </c>
+      <c r="C259" t="s">
+        <v>1384</v>
+      </c>
+      <c r="D259" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A260" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B260" t="s">
+        <v>906</v>
+      </c>
+      <c r="C260" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D260" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A261" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B261" t="s">
+        <v>906</v>
+      </c>
+      <c r="C261" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D261" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A262" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B262" t="s">
+        <v>906</v>
+      </c>
+      <c r="C262" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D262" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A263" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B263" t="s">
+        <v>906</v>
+      </c>
+      <c r="C263" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D263" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A264" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B264" t="s">
+        <v>906</v>
+      </c>
+      <c r="C264" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D264" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A265" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B265" t="s">
+        <v>906</v>
+      </c>
+      <c r="C265" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D265" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A266" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B266" t="s">
+        <v>906</v>
+      </c>
+      <c r="C266" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D266" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A267" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B267" t="s">
+        <v>906</v>
+      </c>
+      <c r="C267" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D267" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A268" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B268" t="s">
+        <v>906</v>
+      </c>
+      <c r="C268" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D268" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A269" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B269" t="s">
+        <v>906</v>
+      </c>
+      <c r="C269" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D269" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A270" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B270" t="s">
+        <v>906</v>
+      </c>
+      <c r="C270" t="s">
+        <v>1417</v>
+      </c>
+      <c r="D270" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A271" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B271" t="s">
+        <v>906</v>
+      </c>
+      <c r="C271" t="s">
+        <v>1420</v>
+      </c>
+      <c r="D271" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A272" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B272" t="s">
+        <v>906</v>
+      </c>
+      <c r="C272" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D272" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A273" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B273" t="s">
+        <v>906</v>
+      </c>
+      <c r="C273" t="s">
+        <v>1426</v>
+      </c>
+      <c r="D273" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A274" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B274" t="s">
+        <v>906</v>
+      </c>
+      <c r="C274" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D274" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A275" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B275" t="s">
+        <v>906</v>
+      </c>
+      <c r="C275" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D275" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A276" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B276" t="s">
+        <v>906</v>
+      </c>
+      <c r="C276" t="s">
+        <v>1435</v>
+      </c>
+      <c r="D276" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A277" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B277" t="s">
+        <v>906</v>
+      </c>
+      <c r="C277" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D277" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A278" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B278" t="s">
+        <v>906</v>
+      </c>
+      <c r="C278" t="s">
+        <v>1441</v>
+      </c>
+      <c r="D278" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A279" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B279" t="s">
+        <v>906</v>
+      </c>
+      <c r="C279" t="s">
+        <v>1444</v>
+      </c>
+      <c r="D279" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A280" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B280" t="s">
+        <v>906</v>
+      </c>
+      <c r="C280" t="s">
+        <v>1447</v>
+      </c>
+      <c r="D280" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A281" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B281" t="s">
+        <v>906</v>
+      </c>
+      <c r="C281" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D281" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A282" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B282" t="s">
+        <v>906</v>
+      </c>
+      <c r="C282" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D282" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A283" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B283" t="s">
+        <v>906</v>
+      </c>
+      <c r="C283" t="s">
+        <v>1456</v>
+      </c>
+      <c r="D283" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A284" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B284" t="s">
+        <v>906</v>
+      </c>
+      <c r="C284" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D284" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A285" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B285" t="s">
+        <v>906</v>
+      </c>
+      <c r="C285" t="s">
+        <v>1462</v>
+      </c>
+      <c r="D285" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A286" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B286" t="s">
+        <v>906</v>
+      </c>
+      <c r="C286" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D286" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A287" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B287" t="s">
+        <v>906</v>
+      </c>
+      <c r="C287" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D287" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A288" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B288" t="s">
+        <v>906</v>
+      </c>
+      <c r="C288" t="s">
+        <v>1471</v>
+      </c>
+      <c r="D288" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A289" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B289" t="s">
+        <v>906</v>
+      </c>
+      <c r="C289" t="s">
+        <v>1474</v>
+      </c>
+      <c r="D289" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A290" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B290" t="s">
+        <v>906</v>
+      </c>
+      <c r="C290" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D290" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A291" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B291" t="s">
+        <v>906</v>
+      </c>
+      <c r="C291" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D291" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A292" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B292" t="s">
+        <v>906</v>
+      </c>
+      <c r="C292" t="s">
+        <v>1483</v>
+      </c>
+      <c r="D292" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A293" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B293" t="s">
+        <v>906</v>
+      </c>
+      <c r="C293" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D293" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A294" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B294" t="s">
+        <v>906</v>
+      </c>
+      <c r="C294" t="s">
+        <v>1489</v>
+      </c>
+      <c r="D294" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A295" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B295" t="s">
+        <v>906</v>
+      </c>
+      <c r="C295" t="s">
+        <v>1492</v>
+      </c>
+      <c r="D295" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A296" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B296" t="s">
+        <v>906</v>
+      </c>
+      <c r="C296" t="s">
+        <v>1495</v>
+      </c>
+      <c r="D296" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A297" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B297" t="s">
+        <v>906</v>
+      </c>
+      <c r="C297" t="s">
+        <v>1498</v>
+      </c>
+      <c r="D297" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A298" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B298" t="s">
+        <v>906</v>
+      </c>
+      <c r="C298" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D298" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A299" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B299" t="s">
+        <v>906</v>
+      </c>
+      <c r="C299" t="s">
+        <v>1504</v>
+      </c>
+      <c r="D299" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A300" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B300" t="s">
+        <v>906</v>
+      </c>
+      <c r="C300" t="s">
+        <v>1507</v>
+      </c>
+      <c r="D300" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A301" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B301" t="s">
+        <v>906</v>
+      </c>
+      <c r="C301" t="s">
+        <v>1510</v>
+      </c>
+      <c r="D301" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A302" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B302" t="s">
+        <v>906</v>
+      </c>
+      <c r="C302" t="s">
+        <v>1513</v>
+      </c>
+      <c r="D302" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A303" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B303" t="s">
+        <v>906</v>
+      </c>
+      <c r="C303" t="s">
+        <v>1516</v>
+      </c>
+      <c r="D303" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A304" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B304" t="s">
+        <v>906</v>
+      </c>
+      <c r="C304" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D304" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A305" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B305" t="s">
+        <v>906</v>
+      </c>
+      <c r="C305" t="s">
+        <v>1522</v>
+      </c>
+      <c r="D305" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A306" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B306" t="s">
+        <v>906</v>
+      </c>
+      <c r="C306" t="s">
+        <v>1525</v>
+      </c>
+      <c r="D306" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A307" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B307" t="s">
+        <v>906</v>
+      </c>
+      <c r="C307" t="s">
+        <v>1528</v>
+      </c>
+      <c r="D307" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A308" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B308" t="s">
+        <v>906</v>
+      </c>
+      <c r="C308" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D308" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A309" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B309" t="s">
+        <v>906</v>
+      </c>
+      <c r="C309" t="s">
+        <v>1534</v>
+      </c>
+      <c r="D309" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A310" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B310" t="s">
+        <v>906</v>
+      </c>
+      <c r="C310" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D310" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A311" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B311" t="s">
+        <v>906</v>
+      </c>
+      <c r="C311" t="s">
+        <v>1540</v>
+      </c>
+      <c r="D311" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A312" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B312" t="s">
+        <v>906</v>
+      </c>
+      <c r="C312" t="s">
+        <v>1543</v>
+      </c>
+      <c r="D312" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A313" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B313" t="s">
+        <v>906</v>
+      </c>
+      <c r="C313" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D313" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A314" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B314" t="s">
+        <v>906</v>
+      </c>
+      <c r="C314" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D314" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A315" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B315" t="s">
+        <v>906</v>
+      </c>
+      <c r="C315" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D315" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A316" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B316" t="s">
+        <v>906</v>
+      </c>
+      <c r="C316" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D316" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A317" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B317" t="s">
+        <v>906</v>
+      </c>
+      <c r="C317" t="s">
+        <v>1558</v>
+      </c>
+      <c r="D317" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A318" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B318" t="s">
+        <v>906</v>
+      </c>
+      <c r="C318" t="s">
+        <v>1561</v>
+      </c>
+      <c r="D318" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A319" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B319" t="s">
+        <v>906</v>
+      </c>
+      <c r="C319" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D319" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A320" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B320" t="s">
+        <v>906</v>
+      </c>
+      <c r="C320" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D320" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A321" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B321" t="s">
+        <v>906</v>
+      </c>
+      <c r="C321" t="s">
+        <v>1568</v>
+      </c>
+      <c r="D321" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A322" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B322" t="s">
+        <v>906</v>
+      </c>
+      <c r="C322" t="s">
+        <v>1568</v>
+      </c>
+      <c r="D322" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A323" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B323" t="s">
+        <v>906</v>
+      </c>
+      <c r="C323" t="s">
+        <v>1572</v>
+      </c>
+      <c r="D323" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A324" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B324" t="s">
+        <v>906</v>
+      </c>
+      <c r="C324" t="s">
+        <v>1575</v>
+      </c>
+      <c r="D324" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A325" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B325" t="s">
+        <v>906</v>
+      </c>
+      <c r="C325" t="s">
+        <v>1578</v>
+      </c>
+      <c r="D325" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A326" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B326" t="s">
+        <v>906</v>
+      </c>
+      <c r="C326" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D326" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A327" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B327" t="s">
+        <v>906</v>
+      </c>
+      <c r="C327" t="s">
+        <v>1584</v>
+      </c>
+      <c r="D327" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A328" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B328" t="s">
+        <v>906</v>
+      </c>
+      <c r="C328" t="s">
+        <v>1587</v>
+      </c>
+      <c r="D328" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A329" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B329" t="s">
+        <v>906</v>
+      </c>
+      <c r="C329" t="s">
+        <v>1590</v>
+      </c>
+      <c r="D329" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A330" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B330" t="s">
+        <v>906</v>
+      </c>
+      <c r="C330" t="s">
+        <v>1593</v>
+      </c>
+      <c r="D330" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A331" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B331" t="s">
+        <v>906</v>
+      </c>
+      <c r="C331" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D331" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A332" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B332" t="s">
+        <v>906</v>
+      </c>
+      <c r="C332" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D332" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A333" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B333" t="s">
+        <v>906</v>
+      </c>
+      <c r="C333" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D333" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A334" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B334" t="s">
+        <v>906</v>
+      </c>
+      <c r="C334" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D334" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A335" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B335" t="s">
+        <v>906</v>
+      </c>
+      <c r="C335" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D335" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A336" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B336" t="s">
+        <v>906</v>
+      </c>
+      <c r="C336" t="s">
+        <v>1611</v>
+      </c>
+      <c r="D336" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A337" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B337" t="s">
+        <v>906</v>
+      </c>
+      <c r="C337" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D337" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A338" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B338" t="s">
+        <v>906</v>
+      </c>
+      <c r="C338" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D338" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A339" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B339" t="s">
+        <v>906</v>
+      </c>
+      <c r="C339" t="s">
+        <v>1620</v>
+      </c>
+      <c r="D339" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A340" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B340" t="s">
+        <v>906</v>
+      </c>
+      <c r="C340" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D340" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A341" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B341" t="s">
+        <v>906</v>
+      </c>
+      <c r="C341" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D341" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A342" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B342" t="s">
+        <v>906</v>
+      </c>
+      <c r="C342" t="s">
+        <v>1629</v>
+      </c>
+      <c r="D342" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A343" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B343" t="s">
+        <v>906</v>
+      </c>
+      <c r="C343" t="s">
+        <v>1632</v>
+      </c>
+      <c r="D343" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A344" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B344" t="s">
+        <v>906</v>
+      </c>
+      <c r="C344" t="s">
+        <v>1635</v>
+      </c>
+      <c r="D344" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A345" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B345" t="s">
+        <v>906</v>
+      </c>
+      <c r="C345" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D345" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A346" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B346" t="s">
+        <v>906</v>
+      </c>
+      <c r="C346" t="s">
+        <v>1641</v>
+      </c>
+      <c r="D346" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A347" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B347" t="s">
+        <v>906</v>
+      </c>
+      <c r="C347" t="s">
+        <v>1644</v>
+      </c>
+      <c r="D347" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A348" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B348" t="s">
+        <v>906</v>
+      </c>
+      <c r="C348" t="s">
+        <v>1647</v>
+      </c>
+      <c r="D348" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A349" t="s">
+        <v>1649</v>
+      </c>
+      <c r="B349" t="s">
+        <v>906</v>
+      </c>
+      <c r="C349" t="s">
+        <v>1650</v>
+      </c>
+      <c r="D349" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A350" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B350" t="s">
+        <v>906</v>
+      </c>
+      <c r="C350" t="s">
+        <v>1653</v>
+      </c>
+      <c r="D350" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A351" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B351" t="s">
+        <v>906</v>
+      </c>
+      <c r="C351" t="s">
+        <v>1656</v>
+      </c>
+      <c r="D351" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A352" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B352" t="s">
+        <v>906</v>
+      </c>
+      <c r="C352" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D352" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A353" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B353" t="s">
+        <v>906</v>
+      </c>
+      <c r="C353" t="s">
+        <v>1662</v>
+      </c>
+      <c r="D353" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A354" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B354" t="s">
+        <v>906</v>
+      </c>
+      <c r="C354" t="s">
+        <v>1665</v>
+      </c>
+      <c r="D354" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A355" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B355" t="s">
+        <v>906</v>
+      </c>
+      <c r="C355" t="s">
+        <v>1668</v>
+      </c>
+      <c r="D355" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A356" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B356" t="s">
+        <v>906</v>
+      </c>
+      <c r="C356" t="s">
+        <v>1671</v>
+      </c>
+      <c r="D356" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A357" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B357" t="s">
+        <v>906</v>
+      </c>
+      <c r="C357" t="s">
+        <v>1674</v>
+      </c>
+      <c r="D357" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A358" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B358" t="s">
+        <v>906</v>
+      </c>
+      <c r="C358" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D358" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A359" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B359" t="s">
+        <v>906</v>
+      </c>
+      <c r="C359" t="s">
+        <v>1680</v>
+      </c>
+      <c r="D359" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A360" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B360" t="s">
+        <v>906</v>
+      </c>
+      <c r="C360" t="s">
+        <v>1683</v>
+      </c>
+      <c r="D360" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A361" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B361" t="s">
+        <v>906</v>
+      </c>
+      <c r="C361" t="s">
+        <v>1686</v>
+      </c>
+      <c r="D361" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A362" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B362" t="s">
+        <v>906</v>
+      </c>
+      <c r="C362" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D362" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A363" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B363" t="s">
+        <v>906</v>
+      </c>
+      <c r="C363" t="s">
+        <v>1692</v>
+      </c>
+      <c r="D363" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A364" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B364" t="s">
+        <v>906</v>
+      </c>
+      <c r="C364" t="s">
+        <v>1695</v>
+      </c>
+      <c r="D364" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A365" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B365" t="s">
+        <v>906</v>
+      </c>
+      <c r="C365" t="s">
+        <v>1698</v>
+      </c>
+      <c r="D365" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A366" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B366" t="s">
+        <v>906</v>
+      </c>
+      <c r="C366" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D366" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A367" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B367" t="s">
+        <v>906</v>
+      </c>
+      <c r="C367" t="s">
+        <v>1704</v>
+      </c>
+      <c r="D367" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A368" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B368" t="s">
+        <v>906</v>
+      </c>
+      <c r="C368" t="s">
+        <v>1707</v>
+      </c>
+      <c r="D368" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A369" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B369" t="s">
+        <v>906</v>
+      </c>
+      <c r="C369" t="s">
+        <v>1710</v>
+      </c>
+      <c r="D369" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A370" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B370" t="s">
+        <v>906</v>
+      </c>
+      <c r="C370" t="s">
+        <v>1713</v>
+      </c>
+      <c r="D370" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A371" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B371" t="s">
+        <v>906</v>
+      </c>
+      <c r="C371" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D371" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A372" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B372" t="s">
+        <v>906</v>
+      </c>
+      <c r="C372" t="s">
+        <v>1719</v>
+      </c>
+      <c r="D372" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A373" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B373" t="s">
+        <v>906</v>
+      </c>
+      <c r="C373" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D373" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A374" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B374" t="s">
+        <v>906</v>
+      </c>
+      <c r="C374" t="s">
+        <v>1725</v>
+      </c>
+      <c r="D374" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A375" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B375" t="s">
+        <v>906</v>
+      </c>
+      <c r="C375" t="s">
+        <v>1728</v>
+      </c>
+      <c r="D375" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A376" t="s">
+        <v>1730</v>
+      </c>
+      <c r="B376" t="s">
+        <v>906</v>
+      </c>
+      <c r="C376" t="s">
+        <v>1731</v>
+      </c>
+      <c r="D376" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A377" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B377" t="s">
+        <v>906</v>
+      </c>
+      <c r="C377" t="s">
+        <v>1734</v>
+      </c>
+      <c r="D377" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A378" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B378" t="s">
+        <v>906</v>
+      </c>
+      <c r="C378" t="s">
+        <v>1737</v>
+      </c>
+      <c r="D378" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A379" t="s">
+        <v>1739</v>
+      </c>
+      <c r="B379" t="s">
+        <v>906</v>
+      </c>
+      <c r="C379" t="s">
+        <v>1740</v>
+      </c>
+      <c r="D379" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A380" t="s">
+        <v>1742</v>
+      </c>
+      <c r="B380" t="s">
+        <v>906</v>
+      </c>
+      <c r="C380" t="s">
+        <v>1743</v>
+      </c>
+      <c r="D380" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A381" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B381" t="s">
+        <v>906</v>
+      </c>
+      <c r="C381" t="s">
+        <v>1746</v>
+      </c>
+      <c r="D381" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A382" t="s">
+        <v>1748</v>
+      </c>
+      <c r="B382" t="s">
+        <v>906</v>
+      </c>
+      <c r="C382" t="s">
+        <v>1749</v>
+      </c>
+      <c r="D382" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A383" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B383" t="s">
+        <v>906</v>
+      </c>
+      <c r="C383" t="s">
+        <v>1752</v>
+      </c>
+      <c r="D383" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A384" t="s">
+        <v>1754</v>
+      </c>
+      <c r="B384" t="s">
+        <v>906</v>
+      </c>
+      <c r="C384" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D384" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A385" t="s">
+        <v>1757</v>
+      </c>
+      <c r="B385" t="s">
+        <v>906</v>
+      </c>
+      <c r="C385" t="s">
+        <v>1758</v>
+      </c>
+      <c r="D385" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A386" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B386" t="s">
+        <v>906</v>
+      </c>
+      <c r="C386" t="s">
+        <v>1761</v>
+      </c>
+      <c r="D386" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A387" t="s">
+        <v>1763</v>
+      </c>
+      <c r="B387" t="s">
+        <v>906</v>
+      </c>
+      <c r="C387" t="s">
+        <v>1764</v>
+      </c>
+      <c r="D387" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A388" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B388" t="s">
+        <v>906</v>
+      </c>
+      <c r="C388" t="s">
+        <v>1767</v>
+      </c>
+      <c r="D388" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A389" t="s">
+        <v>1769</v>
+      </c>
+      <c r="B389" t="s">
+        <v>906</v>
+      </c>
+      <c r="C389" t="s">
+        <v>1770</v>
+      </c>
+      <c r="D389" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A390" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B390" t="s">
+        <v>906</v>
+      </c>
+      <c r="C390" t="s">
+        <v>1773</v>
+      </c>
+      <c r="D390" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A391" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B391" t="s">
+        <v>906</v>
+      </c>
+      <c r="C391" t="s">
+        <v>1776</v>
+      </c>
+      <c r="D391" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A392" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B392" t="s">
+        <v>906</v>
+      </c>
+      <c r="C392" t="s">
+        <v>1779</v>
+      </c>
+      <c r="D392" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A393" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B393" t="s">
+        <v>906</v>
+      </c>
+      <c r="C393" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D393" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A394" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B394" t="s">
+        <v>906</v>
+      </c>
+      <c r="C394" t="s">
+        <v>1785</v>
+      </c>
+      <c r="D394" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A395" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B395" t="s">
+        <v>906</v>
+      </c>
+      <c r="C395" t="s">
+        <v>1788</v>
+      </c>
+      <c r="D395" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A396" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B396" t="s">
+        <v>906</v>
+      </c>
+      <c r="C396" t="s">
+        <v>1791</v>
+      </c>
+      <c r="D396" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A397" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B397" t="s">
+        <v>906</v>
+      </c>
+      <c r="C397" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D397" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A398" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B398" t="s">
+        <v>906</v>
+      </c>
+      <c r="C398" t="s">
+        <v>1797</v>
+      </c>
+      <c r="D398" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A399" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B399" t="s">
+        <v>906</v>
+      </c>
+      <c r="C399" t="s">
+        <v>1800</v>
+      </c>
+      <c r="D399" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A400" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B400" t="s">
+        <v>906</v>
+      </c>
+      <c r="C400" t="s">
+        <v>1803</v>
+      </c>
+      <c r="D400" t="s">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A401" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B401" t="s">
+        <v>906</v>
+      </c>
+      <c r="C401" t="s">
+        <v>1806</v>
+      </c>
+      <c r="D401" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A402" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B402" t="s">
+        <v>906</v>
+      </c>
+      <c r="C402" t="s">
+        <v>1809</v>
+      </c>
+      <c r="D402" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A403" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B403" t="s">
+        <v>906</v>
+      </c>
+      <c r="C403" t="s">
+        <v>1812</v>
+      </c>
+      <c r="D403" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A404" t="s">
+        <v>1814</v>
+      </c>
+      <c r="B404" t="s">
+        <v>906</v>
+      </c>
+      <c r="C404" t="s">
+        <v>1815</v>
+      </c>
+      <c r="D404" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A405" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B405" t="s">
+        <v>906</v>
+      </c>
+      <c r="C405" t="s">
+        <v>1818</v>
+      </c>
+      <c r="D405" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A406" t="s">
+        <v>1820</v>
+      </c>
+      <c r="B406" t="s">
+        <v>906</v>
+      </c>
+      <c r="C406" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D406" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A407" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B407" t="s">
+        <v>906</v>
+      </c>
+      <c r="C407" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D407" t="s">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A408" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B408" t="s">
+        <v>906</v>
+      </c>
+      <c r="C408" t="s">
+        <v>1827</v>
+      </c>
+      <c r="D408" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A409" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B409" t="s">
+        <v>906</v>
+      </c>
+      <c r="C409" t="s">
+        <v>1830</v>
+      </c>
+      <c r="D409" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A410" t="s">
+        <v>1832</v>
+      </c>
+      <c r="B410" t="s">
+        <v>906</v>
+      </c>
+      <c r="C410" t="s">
+        <v>1833</v>
+      </c>
+      <c r="D410" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A411" t="s">
+        <v>1835</v>
+      </c>
+      <c r="B411" t="s">
+        <v>906</v>
+      </c>
+      <c r="C411" t="s">
+        <v>1836</v>
+      </c>
+      <c r="D411" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A412" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B412" t="s">
+        <v>906</v>
+      </c>
+      <c r="C412" t="s">
+        <v>1839</v>
+      </c>
+      <c r="D412" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A413" t="s">
+        <v>1841</v>
+      </c>
+      <c r="B413" t="s">
+        <v>906</v>
+      </c>
+      <c r="C413" t="s">
+        <v>1842</v>
+      </c>
+      <c r="D413" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A414" t="s">
+        <v>1844</v>
+      </c>
+      <c r="B414" t="s">
+        <v>906</v>
+      </c>
+      <c r="C414" t="s">
+        <v>1845</v>
+      </c>
+      <c r="D414" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A415" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B415" t="s">
+        <v>906</v>
+      </c>
+      <c r="C415" t="s">
+        <v>1848</v>
+      </c>
+      <c r="D415" t="s">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A416" t="s">
+        <v>1850</v>
+      </c>
+      <c r="B416" t="s">
+        <v>906</v>
+      </c>
+      <c r="C416" t="s">
+        <v>1851</v>
+      </c>
+      <c r="D416" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A417" t="s">
+        <v>1853</v>
+      </c>
+      <c r="B417" t="s">
+        <v>906</v>
+      </c>
+      <c r="C417" t="s">
+        <v>1854</v>
+      </c>
+      <c r="D417" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A418" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B418" t="s">
+        <v>906</v>
+      </c>
+      <c r="C418" t="s">
+        <v>1857</v>
+      </c>
+      <c r="D418" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A419" t="s">
+        <v>1859</v>
+      </c>
+      <c r="B419" t="s">
+        <v>906</v>
+      </c>
+      <c r="C419" t="s">
+        <v>1860</v>
+      </c>
+      <c r="D419" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A420" t="s">
+        <v>1862</v>
+      </c>
+      <c r="B420" t="s">
+        <v>906</v>
+      </c>
+      <c r="C420" t="s">
+        <v>1863</v>
+      </c>
+      <c r="D420" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A421" t="s">
+        <v>1865</v>
+      </c>
+      <c r="B421" t="s">
+        <v>906</v>
+      </c>
+      <c r="C421" t="s">
+        <v>1866</v>
+      </c>
+      <c r="D421" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A422" t="s">
+        <v>1868</v>
+      </c>
+      <c r="B422" t="s">
+        <v>906</v>
+      </c>
+      <c r="C422" t="s">
+        <v>1869</v>
+      </c>
+      <c r="D422" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A423" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B423" t="s">
+        <v>906</v>
+      </c>
+      <c r="C423" t="s">
+        <v>1872</v>
+      </c>
+      <c r="D423" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A424" t="s">
+        <v>1874</v>
+      </c>
+      <c r="B424" t="s">
+        <v>906</v>
+      </c>
+      <c r="C424" t="s">
+        <v>1875</v>
+      </c>
+      <c r="D424" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A425" t="s">
+        <v>1877</v>
+      </c>
+      <c r="B425" t="s">
+        <v>906</v>
+      </c>
+      <c r="C425" t="s">
+        <v>1878</v>
+      </c>
+      <c r="D425" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A426" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B426" t="s">
+        <v>906</v>
+      </c>
+      <c r="C426" t="s">
+        <v>1881</v>
+      </c>
+      <c r="D426" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A427" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B427" t="s">
+        <v>906</v>
+      </c>
+      <c r="C427" t="s">
+        <v>1884</v>
+      </c>
+      <c r="D427" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A428" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B428" t="s">
+        <v>906</v>
+      </c>
+      <c r="C428" t="s">
+        <v>1887</v>
+      </c>
+      <c r="D428" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A429" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B429" t="s">
+        <v>906</v>
+      </c>
+      <c r="C429" t="s">
+        <v>1890</v>
+      </c>
+      <c r="D429" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A430" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B430" t="s">
+        <v>906</v>
+      </c>
+      <c r="C430" t="s">
+        <v>1893</v>
+      </c>
+      <c r="D430" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A431" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B431" t="s">
+        <v>906</v>
+      </c>
+      <c r="C431" t="s">
+        <v>1896</v>
+      </c>
+      <c r="D431" t="s">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A432" t="s">
+        <v>1898</v>
+      </c>
+      <c r="B432" t="s">
+        <v>906</v>
+      </c>
+      <c r="C432" t="s">
+        <v>1899</v>
+      </c>
+      <c r="D432" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A433" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B433" t="s">
+        <v>906</v>
+      </c>
+      <c r="C433" t="s">
+        <v>1902</v>
+      </c>
+      <c r="D433" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A434" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B434" t="s">
+        <v>906</v>
+      </c>
+      <c r="C434" t="s">
+        <v>1905</v>
+      </c>
+      <c r="D434" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A435" t="s">
+        <v>1907</v>
+      </c>
+      <c r="B435" t="s">
+        <v>906</v>
+      </c>
+      <c r="C435" t="s">
+        <v>1908</v>
+      </c>
+      <c r="D435" t="s">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A436" t="s">
+        <v>1910</v>
+      </c>
+      <c r="B436" t="s">
+        <v>906</v>
+      </c>
+      <c r="C436" t="s">
+        <v>1911</v>
+      </c>
+      <c r="D436" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A437" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B437" t="s">
+        <v>906</v>
+      </c>
+      <c r="C437" t="s">
+        <v>1914</v>
+      </c>
+      <c r="D437" t="s">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A438" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B438" t="s">
+        <v>906</v>
+      </c>
+      <c r="C438" t="s">
+        <v>1917</v>
+      </c>
+      <c r="D438" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A439" t="s">
+        <v>1919</v>
+      </c>
+      <c r="B439" t="s">
+        <v>906</v>
+      </c>
+      <c r="C439" t="s">
+        <v>1920</v>
+      </c>
+      <c r="D439" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A440" t="s">
+        <v>1922</v>
+      </c>
+      <c r="B440" t="s">
+        <v>906</v>
+      </c>
+      <c r="C440" t="s">
+        <v>1923</v>
+      </c>
+      <c r="D440" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A441" t="s">
+        <v>1925</v>
+      </c>
+      <c r="B441" t="s">
+        <v>906</v>
+      </c>
+      <c r="C441" t="s">
+        <v>1926</v>
+      </c>
+      <c r="D441" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A442" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B442" t="s">
+        <v>906</v>
+      </c>
+      <c r="C442" t="s">
+        <v>1929</v>
+      </c>
+      <c r="D442" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A443" t="s">
+        <v>1931</v>
+      </c>
+      <c r="B443" t="s">
+        <v>906</v>
+      </c>
+      <c r="C443" t="s">
+        <v>1932</v>
+      </c>
+      <c r="D443" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A444" t="s">
+        <v>1934</v>
+      </c>
+      <c r="B444" t="s">
+        <v>906</v>
+      </c>
+      <c r="C444" t="s">
+        <v>1935</v>
+      </c>
+      <c r="D444" t="s">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A445" t="s">
+        <v>1937</v>
+      </c>
+      <c r="B445" t="s">
+        <v>906</v>
+      </c>
+      <c r="C445" t="s">
+        <v>1938</v>
+      </c>
+      <c r="D445" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A446" t="s">
+        <v>1940</v>
+      </c>
+      <c r="B446" t="s">
+        <v>906</v>
+      </c>
+      <c r="C446" t="s">
+        <v>1941</v>
+      </c>
+      <c r="D446" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A447" t="s">
+        <v>1943</v>
+      </c>
+      <c r="B447" t="s">
+        <v>906</v>
+      </c>
+      <c r="C447" t="s">
+        <v>1944</v>
+      </c>
+      <c r="D447" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A448" t="s">
+        <v>1946</v>
+      </c>
+      <c r="B448" t="s">
+        <v>906</v>
+      </c>
+      <c r="C448" t="s">
+        <v>1947</v>
+      </c>
+      <c r="D448" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A449" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B449" t="s">
+        <v>906</v>
+      </c>
+      <c r="C449" t="s">
+        <v>1950</v>
+      </c>
+      <c r="D449" t="s">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A450" t="s">
+        <v>1952</v>
+      </c>
+      <c r="B450" t="s">
+        <v>906</v>
+      </c>
+      <c r="C450" t="s">
+        <v>1953</v>
+      </c>
+      <c r="D450" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A451" t="s">
+        <v>1955</v>
+      </c>
+      <c r="B451" t="s">
+        <v>906</v>
+      </c>
+      <c r="C451" t="s">
+        <v>1956</v>
+      </c>
+      <c r="D451" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A452" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B452" t="s">
+        <v>906</v>
+      </c>
+      <c r="C452" t="s">
+        <v>1959</v>
+      </c>
+      <c r="D452" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A453" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B453" t="s">
+        <v>906</v>
+      </c>
+      <c r="C453" t="s">
+        <v>1962</v>
+      </c>
+      <c r="D453" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A454" t="s">
+        <v>1964</v>
+      </c>
+      <c r="B454" t="s">
+        <v>906</v>
+      </c>
+      <c r="C454" t="s">
+        <v>1965</v>
+      </c>
+      <c r="D454" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A455" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B455" t="s">
+        <v>906</v>
+      </c>
+      <c r="C455" t="s">
+        <v>1968</v>
+      </c>
+      <c r="D455" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A456" t="s">
+        <v>1970</v>
+      </c>
+      <c r="B456" t="s">
+        <v>906</v>
+      </c>
+      <c r="C456" t="s">
+        <v>1971</v>
+      </c>
+      <c r="D456" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A457" t="s">
+        <v>1973</v>
+      </c>
+      <c r="B457" t="s">
+        <v>906</v>
+      </c>
+      <c r="C457" t="s">
+        <v>1974</v>
+      </c>
+      <c r="D457" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A458" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B458" t="s">
+        <v>906</v>
+      </c>
+      <c r="C458" t="s">
+        <v>1977</v>
+      </c>
+      <c r="D458" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A459" t="s">
+        <v>1979</v>
+      </c>
+      <c r="B459" t="s">
+        <v>906</v>
+      </c>
+      <c r="C459" t="s">
+        <v>1980</v>
+      </c>
+      <c r="D459" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A460" t="s">
+        <v>1982</v>
+      </c>
+      <c r="B460" t="s">
+        <v>906</v>
+      </c>
+      <c r="C460" t="s">
+        <v>1983</v>
+      </c>
+      <c r="D460" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A461" t="s">
+        <v>1985</v>
+      </c>
+      <c r="B461" t="s">
+        <v>906</v>
+      </c>
+      <c r="C461" t="s">
+        <v>1986</v>
+      </c>
+      <c r="D461" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A462" t="s">
+        <v>1988</v>
+      </c>
+      <c r="B462" t="s">
+        <v>906</v>
+      </c>
+      <c r="C462" t="s">
+        <v>1989</v>
+      </c>
+      <c r="D462" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A463" t="s">
+        <v>1991</v>
+      </c>
+      <c r="B463" t="s">
+        <v>906</v>
+      </c>
+      <c r="C463" t="s">
+        <v>1992</v>
+      </c>
+      <c r="D463" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A464" t="s">
+        <v>1994</v>
+      </c>
+      <c r="B464" t="s">
+        <v>906</v>
+      </c>
+      <c r="C464" t="s">
+        <v>1995</v>
+      </c>
+      <c r="D464" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A465" t="s">
+        <v>1997</v>
+      </c>
+      <c r="B465" t="s">
+        <v>906</v>
+      </c>
+      <c r="C465" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D465" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A466" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B466" t="s">
+        <v>906</v>
+      </c>
+      <c r="C466" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D466" t="s">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A467" t="s">
+        <v>2003</v>
+      </c>
+      <c r="B467" t="s">
+        <v>906</v>
+      </c>
+      <c r="C467" t="s">
+        <v>2004</v>
+      </c>
+      <c r="D467" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A468" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B468" t="s">
+        <v>906</v>
+      </c>
+      <c r="C468" t="s">
+        <v>2007</v>
+      </c>
+      <c r="D468" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A469" t="s">
+        <v>2009</v>
+      </c>
+      <c r="B469" t="s">
+        <v>906</v>
+      </c>
+      <c r="C469" t="s">
+        <v>2010</v>
+      </c>
+      <c r="D469" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A470" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B470" t="s">
+        <v>906</v>
+      </c>
+      <c r="C470" t="s">
+        <v>2013</v>
+      </c>
+      <c r="D470" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A471" t="s">
+        <v>2015</v>
+      </c>
+      <c r="B471" t="s">
+        <v>906</v>
+      </c>
+      <c r="C471" t="s">
+        <v>2016</v>
+      </c>
+      <c r="D471" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A472" t="s">
+        <v>2018</v>
+      </c>
+      <c r="B472" t="s">
+        <v>906</v>
+      </c>
+      <c r="C472" t="s">
+        <v>2019</v>
+      </c>
+      <c r="D472" t="s">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A473" t="s">
+        <v>2021</v>
+      </c>
+      <c r="B473" t="s">
+        <v>906</v>
+      </c>
+      <c r="C473" t="s">
+        <v>2022</v>
+      </c>
+      <c r="D473" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A474" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B474" t="s">
+        <v>906</v>
+      </c>
+      <c r="C474" t="s">
+        <v>2025</v>
+      </c>
+      <c r="D474" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A475" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B475" t="s">
+        <v>906</v>
+      </c>
+      <c r="C475" t="s">
+        <v>2028</v>
+      </c>
+      <c r="D475" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A476" t="s">
+        <v>2030</v>
+      </c>
+      <c r="B476" t="s">
+        <v>906</v>
+      </c>
+      <c r="C476" t="s">
+        <v>2031</v>
+      </c>
+      <c r="D476" t="s">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A477" t="s">
+        <v>2033</v>
+      </c>
+      <c r="B477" t="s">
+        <v>906</v>
+      </c>
+      <c r="C477" t="s">
+        <v>2034</v>
+      </c>
+      <c r="D477" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A478" t="s">
+        <v>2036</v>
+      </c>
+      <c r="B478" t="s">
+        <v>906</v>
+      </c>
+      <c r="C478" t="s">
+        <v>2037</v>
+      </c>
+      <c r="D478" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A479" t="s">
+        <v>2039</v>
+      </c>
+      <c r="B479" t="s">
+        <v>906</v>
+      </c>
+      <c r="C479" t="s">
+        <v>2040</v>
+      </c>
+      <c r="D479" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A480" t="s">
+        <v>2042</v>
+      </c>
+      <c r="B480" t="s">
+        <v>906</v>
+      </c>
+      <c r="C480" t="s">
+        <v>2043</v>
+      </c>
+      <c r="D480" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A481" t="s">
+        <v>2045</v>
+      </c>
+      <c r="B481" t="s">
+        <v>906</v>
+      </c>
+      <c r="C481" t="s">
+        <v>2046</v>
+      </c>
+      <c r="D481" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A482" t="s">
+        <v>2048</v>
+      </c>
+      <c r="B482" t="s">
+        <v>906</v>
+      </c>
+      <c r="C482" t="s">
+        <v>2049</v>
+      </c>
+      <c r="D482" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A483" t="s">
+        <v>2051</v>
+      </c>
+      <c r="B483" t="s">
+        <v>906</v>
+      </c>
+      <c r="C483" t="s">
+        <v>2052</v>
+      </c>
+      <c r="D483" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A484" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B484" t="s">
+        <v>906</v>
+      </c>
+      <c r="C484" t="s">
+        <v>2055</v>
+      </c>
+      <c r="D484" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A485" t="s">
+        <v>2057</v>
+      </c>
+      <c r="B485" t="s">
+        <v>906</v>
+      </c>
+      <c r="C485" t="s">
+        <v>2058</v>
+      </c>
+      <c r="D485" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A486" t="s">
+        <v>2060</v>
+      </c>
+      <c r="B486" t="s">
+        <v>906</v>
+      </c>
+      <c r="C486" t="s">
+        <v>2061</v>
+      </c>
+      <c r="D486" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A487" t="s">
+        <v>2063</v>
+      </c>
+      <c r="B487" t="s">
+        <v>906</v>
+      </c>
+      <c r="C487" t="s">
+        <v>2064</v>
+      </c>
+      <c r="D487" t="s">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A488" t="s">
+        <v>2066</v>
+      </c>
+      <c r="B488" t="s">
+        <v>906</v>
+      </c>
+      <c r="C488" t="s">
+        <v>2067</v>
+      </c>
+      <c r="D488" t="s">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A489" t="s">
+        <v>2069</v>
+      </c>
+      <c r="B489" t="s">
+        <v>906</v>
+      </c>
+      <c r="C489" t="s">
+        <v>2070</v>
+      </c>
+      <c r="D489" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A490" t="s">
+        <v>2072</v>
+      </c>
+      <c r="B490" t="s">
+        <v>906</v>
+      </c>
+      <c r="C490" t="s">
+        <v>2073</v>
+      </c>
+      <c r="D490" t="s">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A491" t="s">
+        <v>2075</v>
+      </c>
+      <c r="B491" t="s">
+        <v>906</v>
+      </c>
+      <c r="C491" t="s">
+        <v>2076</v>
+      </c>
+      <c r="D491" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A492" t="s">
+        <v>2078</v>
+      </c>
+      <c r="B492" t="s">
+        <v>906</v>
+      </c>
+      <c r="C492" t="s">
+        <v>2079</v>
+      </c>
+      <c r="D492" t="s">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A493" t="s">
+        <v>2081</v>
+      </c>
+      <c r="B493" t="s">
+        <v>906</v>
+      </c>
+      <c r="C493" t="s">
+        <v>2082</v>
+      </c>
+      <c r="D493" t="s">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A494" t="s">
+        <v>2084</v>
+      </c>
+      <c r="B494" t="s">
+        <v>906</v>
+      </c>
+      <c r="C494" t="s">
+        <v>2085</v>
+      </c>
+      <c r="D494" t="s">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A495" t="s">
+        <v>2087</v>
+      </c>
+      <c r="B495" t="s">
+        <v>906</v>
+      </c>
+      <c r="C495" t="s">
+        <v>2088</v>
+      </c>
+      <c r="D495" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A496" t="s">
+        <v>2090</v>
+      </c>
+      <c r="B496" t="s">
+        <v>906</v>
+      </c>
+      <c r="C496" t="s">
+        <v>2091</v>
+      </c>
+      <c r="D496" t="s">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A497" t="s">
+        <v>2093</v>
+      </c>
+      <c r="B497" t="s">
+        <v>906</v>
+      </c>
+      <c r="C497" t="s">
+        <v>2094</v>
+      </c>
+      <c r="D497" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A498" t="s">
+        <v>2096</v>
+      </c>
+      <c r="B498" t="s">
+        <v>906</v>
+      </c>
+      <c r="C498" t="s">
+        <v>2097</v>
+      </c>
+      <c r="D498" t="s">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A499" t="s">
+        <v>2099</v>
+      </c>
+      <c r="B499" t="s">
+        <v>906</v>
+      </c>
+      <c r="C499" t="s">
+        <v>2100</v>
+      </c>
+      <c r="D499" t="s">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A500" t="s">
+        <v>2102</v>
+      </c>
+      <c r="B500" t="s">
+        <v>906</v>
+      </c>
+      <c r="C500" t="s">
+        <v>2103</v>
+      </c>
+      <c r="D500" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A501" t="s">
+        <v>2105</v>
+      </c>
+      <c r="B501" t="s">
+        <v>906</v>
+      </c>
+      <c r="C501" t="s">
+        <v>2106</v>
+      </c>
+      <c r="D501" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A502" t="s">
+        <v>2108</v>
+      </c>
+      <c r="B502" t="s">
+        <v>906</v>
+      </c>
+      <c r="C502" t="s">
+        <v>2109</v>
+      </c>
+      <c r="D502" t="s">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A503" t="s">
+        <v>2111</v>
+      </c>
+      <c r="B503" t="s">
+        <v>906</v>
+      </c>
+      <c r="C503" t="s">
+        <v>2112</v>
+      </c>
+      <c r="D503" t="s">
+        <v>2113</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
